--- a/Caracteristicas_Datos.xlsx
+++ b/Caracteristicas_Datos.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H89"/>
+  <dimension ref="A1:H361"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,22 +475,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.2062304375</v>
+        <v>0.03361504</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02552759</v>
+        <v>0.00654884</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1681096775</v>
+        <v>0.003833960000000002</v>
       </c>
       <c r="E2" t="n">
-        <v>891.8535094375001</v>
+        <v>338.65470276</v>
       </c>
       <c r="F2" t="n">
-        <v>26225.1688175975</v>
+        <v>8601.156763999999</v>
       </c>
       <c r="G2" t="n">
-        <v>1587.74518264</v>
+        <v>75.01503283999999</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -501,22 +501,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1867208975</v>
+        <v>0.02167856</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0264785775</v>
+        <v>0.01558224</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2129353775</v>
+        <v>0.07480576</v>
       </c>
       <c r="E3" t="n">
-        <v>931.87177784</v>
+        <v>253.828352</v>
       </c>
       <c r="F3" t="n">
-        <v>26056.8163177975</v>
+        <v>17597.37274544</v>
       </c>
       <c r="G3" t="n">
-        <v>1030.9838797775</v>
+        <v>1369.65125904</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -527,22 +527,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1954937975</v>
+        <v>0.14517584</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01710476</v>
+        <v>0.05901636</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2134219975</v>
+        <v>0.09475504000000003</v>
       </c>
       <c r="E4" t="n">
-        <v>735.2031782399999</v>
+        <v>2457.11720016</v>
       </c>
       <c r="F4" t="n">
-        <v>22943.7658342975</v>
+        <v>24640.34744996</v>
       </c>
       <c r="G4" t="n">
-        <v>764.21251911</v>
+        <v>1541.00967396</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -553,22 +553,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.17615871</v>
+        <v>0.16267156</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0168812775</v>
+        <v>0.00952384</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2650558775</v>
+        <v>0.12065456</v>
       </c>
       <c r="E5" t="n">
-        <v>446.2089084375</v>
+        <v>411.20632704</v>
       </c>
       <c r="F5" t="n">
-        <v>23570.68765739</v>
+        <v>5369.206440000001</v>
       </c>
       <c r="G5" t="n">
-        <v>992.4632507975001</v>
+        <v>571.14449776</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -579,22 +579,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.1947754775</v>
+        <v>0.10483264</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01723639</v>
+        <v>0.03559924</v>
       </c>
       <c r="D6" t="n">
-        <v>0.22590924</v>
+        <v>0.13181924</v>
       </c>
       <c r="E6" t="n">
-        <v>674.867438</v>
+        <v>1233.63292116</v>
       </c>
       <c r="F6" t="n">
-        <v>25960.31572439</v>
+        <v>16219.066993</v>
       </c>
       <c r="G6" t="n">
-        <v>853.846545</v>
+        <v>983.7258480400001</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -605,22 +605,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.2024810975</v>
+        <v>0.005233959999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>0.010091</v>
+        <v>0.00816004</v>
       </c>
       <c r="D7" t="n">
-        <v>0.208984</v>
+        <v>0.004624839999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>455.2788445975</v>
+        <v>641.63880084</v>
       </c>
       <c r="F7" t="n">
-        <v>16033.3465867975</v>
+        <v>6512.33910004</v>
       </c>
       <c r="G7" t="n">
-        <v>463.12389975</v>
+        <v>159.268684</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -631,22 +631,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.16819384</v>
+        <v>0.04016</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0159577975</v>
+        <v>0.01923184</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2118457775</v>
+        <v>0.122401</v>
       </c>
       <c r="E8" t="n">
-        <v>676.5016330975</v>
+        <v>515.52397824</v>
       </c>
       <c r="F8" t="n">
-        <v>22021.0202402775</v>
+        <v>5523.24738</v>
       </c>
       <c r="G8" t="n">
-        <v>920.0942328775001</v>
+        <v>450.37282036</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -657,22 +657,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1676966975</v>
+        <v>0.14092864</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0164336775</v>
+        <v>0.02664676</v>
       </c>
       <c r="D9" t="n">
-        <v>0.230495</v>
+        <v>0.18752464</v>
       </c>
       <c r="E9" t="n">
-        <v>593.6319207775</v>
+        <v>1141.89775904</v>
       </c>
       <c r="F9" t="n">
-        <v>16961.0621253975</v>
+        <v>7027.34896116</v>
       </c>
       <c r="G9" t="n">
-        <v>1157.2601773775</v>
+        <v>390.4630528399999</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -683,22 +683,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1637535775</v>
+        <v>0.01766624</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01485936</v>
+        <v>0.006585160000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>0.18240379</v>
+        <v>0.002629439999999999</v>
       </c>
       <c r="E10" t="n">
-        <v>601.1682783975</v>
+        <v>588.9930779600001</v>
       </c>
       <c r="F10" t="n">
-        <v>20166.6964672775</v>
+        <v>10168.977981</v>
       </c>
       <c r="G10" t="n">
-        <v>924.9411457100001</v>
+        <v>93.74796564000002</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -709,22 +709,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.1752020975</v>
+        <v>0.01981984</v>
       </c>
       <c r="C11" t="n">
-        <v>0.009511937499999998</v>
+        <v>0.01823124</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1732364775</v>
+        <v>0.11245604</v>
       </c>
       <c r="E11" t="n">
-        <v>438.3466081775</v>
+        <v>402.2249358399999</v>
       </c>
       <c r="F11" t="n">
-        <v>14991.65911576</v>
+        <v>6865.13012964</v>
       </c>
       <c r="G11" t="n">
-        <v>943.19520475</v>
+        <v>546.085957</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -735,22 +735,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.15594831</v>
+        <v>0.16242864</v>
       </c>
       <c r="C12" t="n">
-        <v>0.00860796</v>
+        <v>0.03144084</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1530019375</v>
+        <v>0.21450256</v>
       </c>
       <c r="E12" t="n">
-        <v>695.685612</v>
+        <v>1109.43536096</v>
       </c>
       <c r="F12" t="n">
-        <v>19279.77619384</v>
+        <v>4367.30949316</v>
       </c>
       <c r="G12" t="n">
-        <v>977.46281419</v>
+        <v>375.7684328399999</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -761,22 +761,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.18338375</v>
+        <v>0.04354163999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0077770775</v>
+        <v>0.00362404</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1875470775</v>
+        <v>0.01335536</v>
       </c>
       <c r="E13" t="n">
-        <v>407.54632219</v>
+        <v>511.79294084</v>
       </c>
       <c r="F13" t="n">
-        <v>14165.1737930775</v>
+        <v>11937.58814496</v>
       </c>
       <c r="G13" t="n">
-        <v>628.5592069775</v>
+        <v>125.33400116</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -787,22 +787,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.123846</v>
+        <v>0.007155560000000001</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0220325975</v>
+        <v>0.02394484</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1549512975</v>
+        <v>0.06313844</v>
       </c>
       <c r="E14" t="n">
-        <v>847.4778432775</v>
+        <v>211.24842896</v>
       </c>
       <c r="F14" t="n">
-        <v>15254.5933024375</v>
+        <v>10638.76907284</v>
       </c>
       <c r="G14" t="n">
-        <v>1124.11730216</v>
+        <v>982.1648824399999</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -813,22 +813,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.1672579375</v>
+        <v>0.16791696</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01143211</v>
+        <v>0.02215904</v>
       </c>
       <c r="D15" t="n">
-        <v>0.143177</v>
+        <v>0.17231504</v>
       </c>
       <c r="E15" t="n">
-        <v>312.11478591</v>
+        <v>732.23164996</v>
       </c>
       <c r="F15" t="n">
-        <v>13547.9734781775</v>
+        <v>6122.197537640001</v>
       </c>
       <c r="G15" t="n">
-        <v>572.88727391</v>
+        <v>228.65997604</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -839,22 +839,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.14412076</v>
+        <v>0.06671055999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>0.008771597500000001</v>
+        <v>0.00478496</v>
       </c>
       <c r="D16" t="n">
-        <v>0.16223075</v>
+        <v>0.02217744</v>
       </c>
       <c r="E16" t="n">
-        <v>324.2082789375</v>
+        <v>208.35686944</v>
       </c>
       <c r="F16" t="n">
-        <v>12480.1993698975</v>
+        <v>10973.03288484</v>
       </c>
       <c r="G16" t="n">
-        <v>602.0361372775001</v>
+        <v>160.21721156</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0143598975</v>
+        <v>0.001970760000000001</v>
       </c>
       <c r="C17" t="n">
-        <v>0.05855471000000002</v>
+        <v>0.01084384</v>
       </c>
       <c r="D17" t="n">
-        <v>0.001668397500000002</v>
+        <v>0.06915776000000001</v>
       </c>
       <c r="E17" t="n">
-        <v>101.98771751</v>
+        <v>211.97503296</v>
       </c>
       <c r="F17" t="n">
-        <v>64.23636399999999</v>
+        <v>10131.11343876</v>
       </c>
       <c r="G17" t="n">
-        <v>2432.8796460775</v>
+        <v>787.35407584</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -891,25 +891,25 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.007994840000000001</v>
+        <v>0.19435716</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0458989975</v>
+        <v>0.02352544</v>
       </c>
       <c r="D18" t="n">
-        <v>0.001019877500000002</v>
+        <v>0.19781204</v>
       </c>
       <c r="E18" t="n">
-        <v>65.9815954375</v>
+        <v>1000.40669876</v>
       </c>
       <c r="F18" t="n">
-        <v>51.24325010999999</v>
+        <v>8779.884235359999</v>
       </c>
       <c r="G18" t="n">
-        <v>1907.41435924</v>
+        <v>353.1786393599999</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -917,25 +917,25 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.006451577500000001</v>
+        <v>0.06690975999999998</v>
       </c>
       <c r="C19" t="n">
-        <v>0.05765176</v>
+        <v>0.00317364</v>
       </c>
       <c r="D19" t="n">
-        <v>0.001550310000000001</v>
+        <v>0.02593135999999999</v>
       </c>
       <c r="E19" t="n">
-        <v>57.3922184775</v>
+        <v>215.04391764</v>
       </c>
       <c r="F19" t="n">
-        <v>40.9548412975</v>
+        <v>11217.52125344</v>
       </c>
       <c r="G19" t="n">
-        <v>1851.45320811</v>
+        <v>119.75206576</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -943,25 +943,25 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.00924971</v>
+        <v>0.001392</v>
       </c>
       <c r="C20" t="n">
-        <v>0.05606175</v>
+        <v>0.01597716</v>
       </c>
       <c r="D20" t="n">
-        <v>0.001764277500000002</v>
+        <v>0.057309</v>
       </c>
       <c r="E20" t="n">
-        <v>71.47315887750001</v>
+        <v>249.96968324</v>
       </c>
       <c r="F20" t="n">
-        <v>49.4063737775</v>
+        <v>6704.82734336</v>
       </c>
       <c r="G20" t="n">
-        <v>2099.84170976</v>
+        <v>626.8570199999999</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -969,25 +969,25 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.00415071</v>
+        <v>0.13342544</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0418623975</v>
+        <v>0.01886704</v>
       </c>
       <c r="D21" t="n">
-        <v>0.001259197500000002</v>
+        <v>0.146096</v>
       </c>
       <c r="E21" t="n">
-        <v>49.0322924375</v>
+        <v>926.17041524</v>
       </c>
       <c r="F21" t="n">
-        <v>49.00324243749999</v>
+        <v>1649.95457824</v>
       </c>
       <c r="G21" t="n">
-        <v>1713.9103645775</v>
+        <v>424.12434784</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -995,25 +995,25 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0052464975</v>
+        <v>0.00590196</v>
       </c>
       <c r="C22" t="n">
-        <v>0.05088199</v>
+        <v>0.00379696</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0020920775</v>
+        <v>0.002992039999999996</v>
       </c>
       <c r="E22" t="n">
-        <v>44.46236403999999</v>
+        <v>342.08803184</v>
       </c>
       <c r="F22" t="n">
-        <v>30.8681251975</v>
+        <v>6396.799684000001</v>
       </c>
       <c r="G22" t="n">
-        <v>1577.0527760975</v>
+        <v>105.34339536</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1021,25 +1021,25 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.005192177499999999</v>
+        <v>0.04435936</v>
       </c>
       <c r="C23" t="n">
-        <v>0.04855597749999999</v>
+        <v>0.01006884</v>
       </c>
       <c r="D23" t="n">
-        <v>0.001259597500000002</v>
+        <v>0.10335924</v>
       </c>
       <c r="E23" t="n">
-        <v>63.3698581775</v>
+        <v>248.63489744</v>
       </c>
       <c r="F23" t="n">
-        <v>27.27849416</v>
+        <v>6381.87392164</v>
       </c>
       <c r="G23" t="n">
-        <v>1797.94407151</v>
+        <v>500.87856724</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1047,25 +1047,25 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.004339</v>
+        <v>0.04150256000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0422743975</v>
+        <v>0.01491296</v>
       </c>
       <c r="D24" t="n">
-        <v>0.001163297500000002</v>
+        <v>0.10479024</v>
       </c>
       <c r="E24" t="n">
-        <v>67.36201758999999</v>
+        <v>724.36992736</v>
       </c>
       <c r="F24" t="n">
-        <v>25.88138451</v>
+        <v>5484.333216999999</v>
       </c>
       <c r="G24" t="n">
-        <v>1425.05840259</v>
+        <v>60.81806144000001</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1073,25 +1073,25 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0100840975</v>
+        <v>0.01008464</v>
       </c>
       <c r="C25" t="n">
-        <v>0.04766339000000001</v>
+        <v>0.00555924</v>
       </c>
       <c r="D25" t="n">
-        <v>0.001984000000000003</v>
+        <v>0.002852959999999999</v>
       </c>
       <c r="E25" t="n">
-        <v>34.97346775</v>
+        <v>341.386849</v>
       </c>
       <c r="F25" t="n">
-        <v>47.1909068975</v>
+        <v>4024.90030996</v>
       </c>
       <c r="G25" t="n">
-        <v>1863.87616276</v>
+        <v>243.67245236</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1099,25 +1099,25 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.007019590000000001</v>
+        <v>0.162533</v>
       </c>
       <c r="C26" t="n">
-        <v>0.04545516000000001</v>
+        <v>0.01422256</v>
       </c>
       <c r="D26" t="n">
-        <v>0.001620000000000003</v>
+        <v>0.174524</v>
       </c>
       <c r="E26" t="n">
-        <v>20.77694375</v>
+        <v>1742.251609</v>
       </c>
       <c r="F26" t="n">
-        <v>26.06237631</v>
+        <v>3124.716189439999</v>
       </c>
       <c r="G26" t="n">
-        <v>1574.60406775</v>
+        <v>1149.420841</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1125,25 +1125,25 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.005750240000000001</v>
+        <v>0.01466544</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0391008975</v>
+        <v>0.005268160000000001</v>
       </c>
       <c r="D27" t="n">
-        <v>0.001517750000000002</v>
+        <v>0.08927216000000002</v>
       </c>
       <c r="E27" t="n">
-        <v>22.47886179</v>
+        <v>226.68333236</v>
       </c>
       <c r="F27" t="n">
-        <v>36.5869399375</v>
+        <v>6488.915108</v>
       </c>
       <c r="G27" t="n">
-        <v>1376.34400359</v>
+        <v>351.43934336</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1151,25 +1151,25 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.007819897499999999</v>
+        <v>0.071685</v>
       </c>
       <c r="C28" t="n">
-        <v>0.06349597749999999</v>
+        <v>0.010841</v>
       </c>
       <c r="D28" t="n">
-        <v>0.001699190000000003</v>
+        <v>0.01955856</v>
       </c>
       <c r="E28" t="n">
-        <v>44.90964084</v>
+        <v>383.33108464</v>
       </c>
       <c r="F28" t="n">
-        <v>36.88558875</v>
+        <v>5546.74763136</v>
       </c>
       <c r="G28" t="n">
-        <v>2133.99855116</v>
+        <v>81.40546100000002</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1177,25 +1177,25 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.004437897499999999</v>
+        <v>0.130452</v>
       </c>
       <c r="C29" t="n">
-        <v>0.05092927749999999</v>
+        <v>0.00350064</v>
       </c>
       <c r="D29" t="n">
-        <v>0.001512077500000002</v>
+        <v>0.06475476000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>28.0970001775</v>
+        <v>241.169025</v>
       </c>
       <c r="F29" t="n">
-        <v>25.8658595775</v>
+        <v>6998.858990760001</v>
       </c>
       <c r="G29" t="n">
-        <v>1714.7205142975</v>
+        <v>626.56273764</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1203,25 +1203,25 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.005855</v>
+        <v>0.002689000000000003</v>
       </c>
       <c r="C30" t="n">
-        <v>0.04696438999999999</v>
+        <v>0.008284639999999999</v>
       </c>
       <c r="D30" t="n">
-        <v>0.001390750000000002</v>
+        <v>0.01831156</v>
       </c>
       <c r="E30" t="n">
-        <v>82.67401137749999</v>
+        <v>151.93264516</v>
       </c>
       <c r="F30" t="n">
-        <v>46.1449369375</v>
+        <v>13241.37309604</v>
       </c>
       <c r="G30" t="n">
-        <v>1682.75507359</v>
+        <v>1244.74843396</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1229,25 +1229,25 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0030687975</v>
+        <v>0.09572400000000002</v>
       </c>
       <c r="C31" t="n">
-        <v>0.04847243750000001</v>
+        <v>0.01638324</v>
       </c>
       <c r="D31" t="n">
-        <v>0.001250297500000001</v>
+        <v>0.06553700000000001</v>
       </c>
       <c r="E31" t="n">
-        <v>30.725328</v>
+        <v>847.3947984400002</v>
       </c>
       <c r="F31" t="n">
-        <v>26.98195764</v>
+        <v>2073.11209044</v>
       </c>
       <c r="G31" t="n">
-        <v>1602.2552834975</v>
+        <v>315.57046464</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1255,25 +1255,25 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.008449377500000001</v>
+        <v>0.07916463999999999</v>
       </c>
       <c r="C32" t="n">
-        <v>0.06493639</v>
+        <v>0.01042356</v>
       </c>
       <c r="D32" t="n">
-        <v>0.001532397500000001</v>
+        <v>0.02946336</v>
       </c>
       <c r="E32" t="n">
-        <v>34.6462435975</v>
+        <v>862.77568804</v>
       </c>
       <c r="F32" t="n">
-        <v>31.1010129375</v>
+        <v>10069.427045</v>
       </c>
       <c r="G32" t="n">
-        <v>2028.3237302975</v>
+        <v>356.04965456</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1281,25 +1281,25 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0101516775</v>
+        <v>0.00417616</v>
       </c>
       <c r="C33" t="n">
-        <v>0.07957067750000001</v>
+        <v>0.008921</v>
       </c>
       <c r="D33" t="n">
-        <v>0.003197190000000001</v>
+        <v>0.03527824000000001</v>
       </c>
       <c r="E33" t="n">
-        <v>51.92287739</v>
+        <v>162.35118736</v>
       </c>
       <c r="F33" t="n">
-        <v>56.96478889749999</v>
+        <v>6830.193176</v>
       </c>
       <c r="G33" t="n">
-        <v>2733.809331359999</v>
+        <v>1045.17877216</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1307,25 +1307,25 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0104019375</v>
+        <v>0.12938724</v>
       </c>
       <c r="C34" t="n">
-        <v>0.26985531</v>
+        <v>0.01630164</v>
       </c>
       <c r="D34" t="n">
-        <v>0.5279154775000001</v>
+        <v>0.14114884</v>
       </c>
       <c r="E34" t="n">
-        <v>63051.20054964</v>
+        <v>667.9174105599999</v>
       </c>
       <c r="F34" t="n">
-        <v>888.6913925975</v>
+        <v>1641.544645</v>
       </c>
       <c r="G34" t="n">
-        <v>930.5040363774999</v>
+        <v>352.51239476</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1333,25 +1333,25 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.006884397499999999</v>
+        <v>0.03519536</v>
       </c>
       <c r="C35" t="n">
-        <v>0.21080056</v>
+        <v>0.004990440000000001</v>
       </c>
       <c r="D35" t="n">
-        <v>0.5652609900000001</v>
+        <v>0.014977</v>
       </c>
       <c r="E35" t="n">
-        <v>53857.05613784</v>
+        <v>543.178268</v>
       </c>
       <c r="F35" t="n">
-        <v>769.7558972974999</v>
+        <v>8702.043923359999</v>
       </c>
       <c r="G35" t="n">
-        <v>557.4581600775</v>
+        <v>78.11890624</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1359,25 +1359,25 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.00389404</v>
+        <v>0.01294896</v>
       </c>
       <c r="C36" t="n">
-        <v>0.16262319</v>
+        <v>0.01514784</v>
       </c>
       <c r="D36" t="n">
-        <v>0.6009395775</v>
+        <v>0.06852</v>
       </c>
       <c r="E36" t="n">
-        <v>41871.6650513775</v>
+        <v>219.64490144</v>
       </c>
       <c r="F36" t="n">
-        <v>708.7930300975</v>
+        <v>5883.36024964</v>
       </c>
       <c r="G36" t="n">
-        <v>450.0426124975</v>
+        <v>379.32591876</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1385,25 +1385,25 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.00381475</v>
+        <v>0.09970784000000001</v>
       </c>
       <c r="C37" t="n">
-        <v>0.1685489375</v>
+        <v>0.02226704</v>
       </c>
       <c r="D37" t="n">
-        <v>0.5783503775</v>
+        <v>0.137416</v>
       </c>
       <c r="E37" t="n">
-        <v>42126.2260991775</v>
+        <v>799.78888004</v>
       </c>
       <c r="F37" t="n">
-        <v>450.96354279</v>
+        <v>2522.09317556</v>
       </c>
       <c r="G37" t="n">
-        <v>540.1468669975001</v>
+        <v>82.46806896</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1411,25 +1411,25 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.007305000000000001</v>
+        <v>0.00493216</v>
       </c>
       <c r="C38" t="n">
-        <v>0.2211528775</v>
+        <v>0.00238336</v>
       </c>
       <c r="D38" t="n">
-        <v>0.4874483975</v>
+        <v>0.002254439999999997</v>
       </c>
       <c r="E38" t="n">
-        <v>56152.4511916775</v>
+        <v>570.02038736</v>
       </c>
       <c r="F38" t="n">
-        <v>784.5788769974999</v>
+        <v>6670.85374576</v>
       </c>
       <c r="G38" t="n">
-        <v>903.1851296975001</v>
+        <v>119.86740564</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1437,25 +1437,25 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.00294531</v>
+        <v>0.05420516</v>
       </c>
       <c r="C39" t="n">
-        <v>0.2085762975</v>
+        <v>0.01835616</v>
       </c>
       <c r="D39" t="n">
-        <v>0.5063524775</v>
+        <v>0.12758864</v>
       </c>
       <c r="E39" t="n">
-        <v>35647.19500416</v>
+        <v>354.81388656</v>
       </c>
       <c r="F39" t="n">
-        <v>189.3314709775</v>
+        <v>8060.752621759999</v>
       </c>
       <c r="G39" t="n">
-        <v>418.4469649975001</v>
+        <v>629.43082096</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1463,25 +1463,25 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.005588697500000001</v>
+        <v>0.048928</v>
       </c>
       <c r="C40" t="n">
-        <v>0.23523791</v>
+        <v>0.01537824</v>
       </c>
       <c r="D40" t="n">
-        <v>0.4579865599999999</v>
+        <v>0.11752064</v>
       </c>
       <c r="E40" t="n">
-        <v>42249.3656414975</v>
+        <v>415.27755616</v>
       </c>
       <c r="F40" t="n">
-        <v>477.6407844375</v>
+        <v>3641.71616436</v>
       </c>
       <c r="G40" t="n">
-        <v>385.31316356</v>
+        <v>785.4062112399998</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1489,25 +1489,25 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.01172975</v>
+        <v>0.02440736</v>
       </c>
       <c r="C41" t="n">
-        <v>0.21713191</v>
+        <v>0.00116564</v>
       </c>
       <c r="D41" t="n">
-        <v>0.4588047499999999</v>
+        <v>0.007116959999999995</v>
       </c>
       <c r="E41" t="n">
-        <v>48684.91445624</v>
+        <v>148.54397204</v>
       </c>
       <c r="F41" t="n">
-        <v>525.76297175</v>
+        <v>5232.448614440001</v>
       </c>
       <c r="G41" t="n">
-        <v>1169.34512696</v>
+        <v>63.97498416000001</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1515,25 +1515,25 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.01105</v>
+        <v>0.11060464</v>
       </c>
       <c r="C42" t="n">
-        <v>0.17842779</v>
+        <v>0.007615560000000001</v>
       </c>
       <c r="D42" t="n">
-        <v>0.5306948775</v>
+        <v>0.117661</v>
       </c>
       <c r="E42" t="n">
-        <v>34846.1176227975</v>
+        <v>755.2595686399998</v>
       </c>
       <c r="F42" t="n">
-        <v>200.40610124</v>
+        <v>4053.67872256</v>
       </c>
       <c r="G42" t="n">
-        <v>1061.75148624</v>
+        <v>688.1382457599998</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1541,25 +1541,25 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0139841975</v>
+        <v>0.06208464000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>0.1922141775</v>
+        <v>0.01160724</v>
       </c>
       <c r="D43" t="n">
-        <v>0.47084919</v>
+        <v>0.14023216</v>
       </c>
       <c r="E43" t="n">
-        <v>41012.3744854375</v>
+        <v>460.10905536</v>
       </c>
       <c r="F43" t="n">
-        <v>241.67120019</v>
+        <v>3942.35156916</v>
       </c>
       <c r="G43" t="n">
-        <v>1372.8719709975</v>
+        <v>294.55485536</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1567,25 +1567,25 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0083744375</v>
+        <v>0.01368404</v>
       </c>
       <c r="C44" t="n">
-        <v>0.18115411</v>
+        <v>0.00250656</v>
       </c>
       <c r="D44" t="n">
-        <v>0.4861914374999999</v>
+        <v>0.001143840000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>40108.5081726975</v>
+        <v>147.32812784</v>
       </c>
       <c r="F44" t="n">
-        <v>378.9056482775</v>
+        <v>2252.55099264</v>
       </c>
       <c r="G44" t="n">
-        <v>457.0936000975</v>
+        <v>113.21446516</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1593,25 +1593,25 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0082184375</v>
+        <v>0.13371556</v>
       </c>
       <c r="C45" t="n">
-        <v>0.1968047975</v>
+        <v>0.00573664</v>
       </c>
       <c r="D45" t="n">
-        <v>0.52301699</v>
+        <v>0.10666144</v>
       </c>
       <c r="E45" t="n">
-        <v>34264.64944139</v>
+        <v>502.24694064</v>
       </c>
       <c r="F45" t="n">
-        <v>427.60724819</v>
+        <v>1889.03633476</v>
       </c>
       <c r="G45" t="n">
-        <v>395.00679775</v>
+        <v>718.3881867599999</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1619,25 +1619,25 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.01367316</v>
+        <v>0.03234500000000001</v>
       </c>
       <c r="C46" t="n">
-        <v>0.25136831</v>
+        <v>0.00562576</v>
       </c>
       <c r="D46" t="n">
-        <v>0.5292771775</v>
+        <v>0.09371700000000001</v>
       </c>
       <c r="E46" t="n">
-        <v>37931.4222130975</v>
+        <v>192.17037444</v>
       </c>
       <c r="F46" t="n">
-        <v>411.9526416974999</v>
+        <v>6623.832676999999</v>
       </c>
       <c r="G46" t="n">
-        <v>504.4025226974999</v>
+        <v>390.27738964</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -1645,25 +1645,25 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0153613975</v>
+        <v>0.04045683999999999</v>
       </c>
       <c r="C47" t="n">
-        <v>0.27717131</v>
+        <v>0.00839056</v>
       </c>
       <c r="D47" t="n">
-        <v>0.4547561775</v>
+        <v>0.005238240000000003</v>
       </c>
       <c r="E47" t="n">
-        <v>34374.52965339</v>
+        <v>451.941536</v>
       </c>
       <c r="F47" t="n">
-        <v>389.5821896975</v>
+        <v>1590.47915204</v>
       </c>
       <c r="G47" t="n">
-        <v>590.3758467499999</v>
+        <v>124.88457104</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -1671,25 +1671,25 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.01145475</v>
+        <v>0.09760163999999999</v>
       </c>
       <c r="C48" t="n">
-        <v>0.2763325975</v>
+        <v>0.003618439999999999</v>
       </c>
       <c r="D48" t="n">
-        <v>0.4212407500000001</v>
+        <v>0.01899200000000001</v>
       </c>
       <c r="E48" t="n">
-        <v>36668.4999704775</v>
+        <v>225.98315056</v>
       </c>
       <c r="F48" t="n">
-        <v>588.9546131975</v>
+        <v>6994.791433000001</v>
       </c>
       <c r="G48" t="n">
-        <v>230.8927884375</v>
+        <v>268.0221766400001</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1697,25 +1697,25 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0164997775</v>
+        <v>0.010997</v>
       </c>
       <c r="C49" t="n">
-        <v>0.2507749775000001</v>
+        <v>0.008700159999999998</v>
       </c>
       <c r="D49" t="n">
-        <v>0.47228236</v>
+        <v>0.03410656</v>
       </c>
       <c r="E49" t="n">
-        <v>37650.8723994375</v>
+        <v>137.43485684</v>
       </c>
       <c r="F49" t="n">
-        <v>384.42946719</v>
+        <v>13702.627156</v>
       </c>
       <c r="G49" t="n">
-        <v>1336.27368924</v>
+        <v>1070.67768336</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1723,25 +1723,25 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.004010397499999999</v>
+        <v>0.07343296000000001</v>
       </c>
       <c r="C50" t="n">
-        <v>0.28274875</v>
+        <v>0.043965</v>
       </c>
       <c r="D50" t="n">
-        <v>0.3914764975</v>
+        <v>0.05399200000000001</v>
       </c>
       <c r="E50" t="n">
-        <v>44478.44947737749</v>
+        <v>1986.43250644</v>
       </c>
       <c r="F50" t="n">
-        <v>308.2819269375</v>
+        <v>1810.284433</v>
       </c>
       <c r="G50" t="n">
-        <v>313.00684499</v>
+        <v>270.9359489999999</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1749,25 +1749,25 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0047822975</v>
+        <v>0.009848000000000001</v>
       </c>
       <c r="C51" t="n">
-        <v>0.1506803775</v>
+        <v>0.00181156</v>
       </c>
       <c r="D51" t="n">
-        <v>0.12957736</v>
+        <v>0.002993960000000003</v>
       </c>
       <c r="E51" t="n">
-        <v>12643.04339804</v>
+        <v>138.655405</v>
       </c>
       <c r="F51" t="n">
-        <v>939.7332599900001</v>
+        <v>4288.16489664</v>
       </c>
       <c r="G51" t="n">
-        <v>320.22032639</v>
+        <v>23.073753</v>
       </c>
       <c r="H51" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1775,25 +1775,25 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.00585199</v>
+        <v>0.028113</v>
       </c>
       <c r="C52" t="n">
-        <v>0.2407738975</v>
+        <v>0.01794256</v>
       </c>
       <c r="D52" t="n">
-        <v>0.24894816</v>
+        <v>0.10418</v>
       </c>
       <c r="E52" t="n">
-        <v>13063.4042527775</v>
+        <v>285.78057584</v>
       </c>
       <c r="F52" t="n">
-        <v>1043.75004596</v>
+        <v>3508.12390784</v>
       </c>
       <c r="G52" t="n">
-        <v>171.9472910975</v>
+        <v>651.251505</v>
       </c>
       <c r="H52" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1801,25 +1801,25 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.00612719</v>
+        <v>0.06884516</v>
       </c>
       <c r="C53" t="n">
-        <v>0.1693372975</v>
+        <v>0.02025364</v>
       </c>
       <c r="D53" t="n">
-        <v>0.16580019</v>
+        <v>0.137956</v>
       </c>
       <c r="E53" t="n">
-        <v>15887.98447171</v>
+        <v>850.99047924</v>
       </c>
       <c r="F53" t="n">
-        <v>1075.3431249375</v>
+        <v>2592.903388</v>
       </c>
       <c r="G53" t="n">
-        <v>109.9708752975</v>
+        <v>158.82027476</v>
       </c>
       <c r="H53" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1827,25 +1827,25 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.005689937500000001</v>
+        <v>0.005063360000000001</v>
       </c>
       <c r="C54" t="n">
-        <v>0.18374416</v>
+        <v>0.00298944</v>
       </c>
       <c r="D54" t="n">
-        <v>0.22570644</v>
+        <v>0.001060040000000002</v>
       </c>
       <c r="E54" t="n">
-        <v>16562.29343779</v>
+        <v>89.51634675999999</v>
       </c>
       <c r="F54" t="n">
-        <v>888.03143631</v>
+        <v>1165.06101444</v>
       </c>
       <c r="G54" t="n">
-        <v>172.18996451</v>
+        <v>69.55943315999998</v>
       </c>
       <c r="H54" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -1853,25 +1853,25 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0049649375</v>
+        <v>0.13277904</v>
       </c>
       <c r="C55" t="n">
-        <v>0.1669839775</v>
+        <v>0.003724840000000001</v>
       </c>
       <c r="D55" t="n">
-        <v>0.1920048775</v>
+        <v>0.04773700000000002</v>
       </c>
       <c r="E55" t="n">
-        <v>15039.02471559</v>
+        <v>264.89915444</v>
       </c>
       <c r="F55" t="n">
-        <v>1138.51787504</v>
+        <v>4831.514284000001</v>
       </c>
       <c r="G55" t="n">
-        <v>205.3675572975</v>
+        <v>439.79764736</v>
       </c>
       <c r="H55" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -1879,25 +1879,25 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.003778437500000001</v>
+        <v>0.005414560000000002</v>
       </c>
       <c r="C56" t="n">
-        <v>0.1773194375</v>
+        <v>0.01001216</v>
       </c>
       <c r="D56" t="n">
-        <v>0.2213424775</v>
+        <v>0.02142484</v>
       </c>
       <c r="E56" t="n">
-        <v>15556.45324056</v>
+        <v>308.463893</v>
       </c>
       <c r="F56" t="n">
-        <v>1010.6398514975</v>
+        <v>11892.55053984</v>
       </c>
       <c r="G56" t="n">
-        <v>169.641013</v>
+        <v>1184.06767264</v>
       </c>
       <c r="H56" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -1905,25 +1905,25 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.006666790000000001</v>
+        <v>0.08957876000000001</v>
       </c>
       <c r="C57" t="n">
-        <v>0.16422384</v>
+        <v>0.008294439999999998</v>
       </c>
       <c r="D57" t="n">
-        <v>0.19565376</v>
+        <v>0.03425300000000001</v>
       </c>
       <c r="E57" t="n">
-        <v>13851.37656259</v>
+        <v>377.8617330000001</v>
       </c>
       <c r="F57" t="n">
-        <v>1087.39291975</v>
+        <v>4507.42246144</v>
       </c>
       <c r="G57" t="n">
-        <v>86.0103854975</v>
+        <v>140.55938036</v>
       </c>
       <c r="H57" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -1931,25 +1931,25 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0036448975</v>
+        <v>0.01825044</v>
       </c>
       <c r="C58" t="n">
-        <v>0.1710994975</v>
+        <v>0.00270976</v>
       </c>
       <c r="D58" t="n">
-        <v>0.1850537775</v>
+        <v>0.004384840000000004</v>
       </c>
       <c r="E58" t="n">
-        <v>10250.3626394975</v>
+        <v>246.475616</v>
       </c>
       <c r="F58" t="n">
-        <v>1128.3635901775</v>
+        <v>4077.182491999999</v>
       </c>
       <c r="G58" t="n">
-        <v>108.9374470975</v>
+        <v>7.41198516</v>
       </c>
       <c r="H58" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -1957,25 +1957,25 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0041420975</v>
+        <v>0.02068704</v>
       </c>
       <c r="C59" t="n">
-        <v>0.19527171</v>
+        <v>0.01737124</v>
       </c>
       <c r="D59" t="n">
-        <v>0.16610579</v>
+        <v>0.09940356</v>
       </c>
       <c r="E59" t="n">
-        <v>14516.5404167975</v>
+        <v>220.538441</v>
       </c>
       <c r="F59" t="n">
-        <v>956.0221346974998</v>
+        <v>5351.93297684</v>
       </c>
       <c r="G59" t="n">
-        <v>222.1125996975</v>
+        <v>654.3735590399999</v>
       </c>
       <c r="H59" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -1983,25 +1983,25 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0037523775</v>
+        <v>0.07290100000000001</v>
       </c>
       <c r="C60" t="n">
-        <v>0.22136084</v>
+        <v>0.01343376</v>
       </c>
       <c r="D60" t="n">
-        <v>0.15063931</v>
+        <v>0.14524944</v>
       </c>
       <c r="E60" t="n">
-        <v>6890.040055310001</v>
+        <v>560.7733790400001</v>
       </c>
       <c r="F60" t="n">
-        <v>724.41751284</v>
+        <v>2358.92788404</v>
       </c>
       <c r="G60" t="n">
-        <v>300.8716471775</v>
+        <v>136.61327956</v>
       </c>
       <c r="H60" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2009,25 +2009,25 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.004090159999999999</v>
+        <v>0.00691616</v>
       </c>
       <c r="C61" t="n">
-        <v>0.1949657975</v>
+        <v>0.0008430400000000001</v>
       </c>
       <c r="D61" t="n">
-        <v>0.16762051</v>
+        <v>0.001116000000000002</v>
       </c>
       <c r="E61" t="n">
-        <v>15844.7132349375</v>
+        <v>97.11661424</v>
       </c>
       <c r="F61" t="n">
-        <v>978.6166655774999</v>
+        <v>1022.08761876</v>
       </c>
       <c r="G61" t="n">
-        <v>82.71579389750001</v>
+        <v>38.93011876</v>
       </c>
       <c r="H61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2035,25 +2035,25 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.00411719</v>
+        <v>0.09582176000000001</v>
       </c>
       <c r="C62" t="n">
-        <v>0.19551999</v>
+        <v>0.007941159999999999</v>
       </c>
       <c r="D62" t="n">
-        <v>0.1670469975</v>
+        <v>0.11417776</v>
       </c>
       <c r="E62" t="n">
-        <v>14512.59795044</v>
+        <v>871.8805537599999</v>
       </c>
       <c r="F62" t="n">
-        <v>768.7545089375</v>
+        <v>1794.26803364</v>
       </c>
       <c r="G62" t="n">
-        <v>118.1972627775</v>
+        <v>495.51345936</v>
       </c>
       <c r="H62" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2061,25 +2061,25 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0039411975</v>
+        <v>0.063844</v>
       </c>
       <c r="C63" t="n">
-        <v>0.1685078975</v>
+        <v>0.00739364</v>
       </c>
       <c r="D63" t="n">
-        <v>0.1561484375</v>
+        <v>0.11660816</v>
       </c>
       <c r="E63" t="n">
-        <v>16586.05305199</v>
+        <v>455.8515810000001</v>
       </c>
       <c r="F63" t="n">
-        <v>1017.6732316975</v>
+        <v>8913.665530239999</v>
       </c>
       <c r="G63" t="n">
-        <v>337.92495275</v>
+        <v>373.59637876</v>
       </c>
       <c r="H63" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2087,25 +2087,25 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.004784790000000001</v>
+        <v>0.01490884</v>
       </c>
       <c r="C64" t="n">
-        <v>0.18847375</v>
+        <v>0.009480960000000004</v>
       </c>
       <c r="D64" t="n">
-        <v>0.1625194775</v>
+        <v>0.00274064</v>
       </c>
       <c r="E64" t="n">
-        <v>13471.4712266975</v>
+        <v>459.33247156</v>
       </c>
       <c r="F64" t="n">
-        <v>844.3770760975001</v>
+        <v>2125.429778240001</v>
       </c>
       <c r="G64" t="n">
-        <v>190.57063304</v>
+        <v>214.99034736</v>
       </c>
       <c r="H64" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2113,25 +2113,25 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0056990775</v>
+        <v>0.02022084</v>
       </c>
       <c r="C65" t="n">
-        <v>0.22237475</v>
+        <v>0.03145476</v>
       </c>
       <c r="D65" t="n">
-        <v>0.1886412775</v>
+        <v>0.002439360000000002</v>
       </c>
       <c r="E65" t="n">
-        <v>8048.762811297502</v>
+        <v>83.35604896</v>
       </c>
       <c r="F65" t="n">
-        <v>826.5979894774999</v>
+        <v>77.22574883999999</v>
       </c>
       <c r="G65" t="n">
-        <v>57.34777604000001</v>
+        <v>1192.23107184</v>
       </c>
       <c r="H65" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2139,25 +2139,25 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0064035775</v>
+        <v>0.01218676</v>
       </c>
       <c r="C66" t="n">
-        <v>0.15280031</v>
+        <v>0.03123344</v>
       </c>
       <c r="D66" t="n">
-        <v>0.10496659</v>
+        <v>0.0002502400000000005</v>
       </c>
       <c r="E66" t="n">
-        <v>11288.84662919</v>
+        <v>106.55945284</v>
       </c>
       <c r="F66" t="n">
-        <v>967.4743339375001</v>
+        <v>39.13671044000001</v>
       </c>
       <c r="G66" t="n">
-        <v>115.4981008775</v>
+        <v>2110.35894464</v>
       </c>
       <c r="H66" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2165,25 +2165,25 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0041191975</v>
+        <v>0.001993</v>
       </c>
       <c r="C67" t="n">
-        <v>0.2074904975</v>
+        <v>0.05274836000000001</v>
       </c>
       <c r="D67" t="n">
-        <v>0.15989864</v>
+        <v>0.002315560000000003</v>
       </c>
       <c r="E67" t="n">
-        <v>13395.7216855775</v>
+        <v>72.13958800000002</v>
       </c>
       <c r="F67" t="n">
-        <v>1069.8369286975</v>
+        <v>12.30188464</v>
       </c>
       <c r="G67" t="n">
-        <v>143.15929</v>
+        <v>2551.588537000001</v>
       </c>
       <c r="H67" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -2191,25 +2191,25 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.004887789999999999</v>
+        <v>0.003184000000000001</v>
       </c>
       <c r="C68" t="n">
-        <v>0.1816882775</v>
+        <v>0.03426976</v>
       </c>
       <c r="D68" t="n">
-        <v>0.15260359</v>
+        <v>0.0006798400000000011</v>
       </c>
       <c r="E68" t="n">
-        <v>11558.48014656</v>
+        <v>72.85359764</v>
       </c>
       <c r="F68" t="n">
-        <v>1015.23196124</v>
+        <v>39.17375344</v>
       </c>
       <c r="G68" t="n">
-        <v>243.72039099</v>
+        <v>317.02271216</v>
       </c>
       <c r="H68" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2217,25 +2217,25 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.005893377500000001</v>
+        <v>0.008196160000000001</v>
       </c>
       <c r="C69" t="n">
-        <v>0.19738</v>
+        <v>0.03388836</v>
       </c>
       <c r="D69" t="n">
-        <v>0.1574674375</v>
+        <v>0.0004850000000000009</v>
       </c>
       <c r="E69" t="n">
-        <v>14012.53582956</v>
+        <v>62.803257</v>
       </c>
       <c r="F69" t="n">
-        <v>978.3774583975</v>
+        <v>32.50780255999999</v>
       </c>
       <c r="G69" t="n">
-        <v>190.88171436</v>
+        <v>973.4778319999999</v>
       </c>
       <c r="H69" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -2243,25 +2243,25 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.00577391</v>
+        <v>0.005248040000000001</v>
       </c>
       <c r="C70" t="n">
-        <v>0.1587627775</v>
+        <v>0.04267136</v>
       </c>
       <c r="D70" t="n">
-        <v>0.1281514375</v>
+        <v>0.0006970000000000012</v>
       </c>
       <c r="E70" t="n">
-        <v>12202.0312272975</v>
+        <v>38.88541424</v>
       </c>
       <c r="F70" t="n">
-        <v>1050.133875</v>
+        <v>51.14042655999999</v>
       </c>
       <c r="G70" t="n">
-        <v>163.7162808775</v>
+        <v>127.156373</v>
       </c>
       <c r="H70" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -2269,25 +2269,25 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.005044437499999999</v>
+        <v>0.00225204</v>
       </c>
       <c r="C71" t="n">
-        <v>0.1572139975</v>
+        <v>0.052509</v>
       </c>
       <c r="D71" t="n">
-        <v>0.1489718775</v>
+        <v>0.001116160000000002</v>
       </c>
       <c r="E71" t="n">
-        <v>10618.7795936975</v>
+        <v>22.56142036</v>
       </c>
       <c r="F71" t="n">
-        <v>951.7351629999998</v>
+        <v>33.00909155999999</v>
       </c>
       <c r="G71" t="n">
-        <v>122.444447</v>
+        <v>461.67558544</v>
       </c>
       <c r="H71" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2295,25 +2295,25 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.007789640000000001</v>
+        <v>0.00313664</v>
       </c>
       <c r="C72" t="n">
-        <v>0.1855092775</v>
+        <v>0.01499076</v>
       </c>
       <c r="D72" t="n">
-        <v>0.1381185775</v>
+        <v>0.001158440000000002</v>
       </c>
       <c r="E72" t="n">
-        <v>3582.1518576775</v>
+        <v>66.11627476</v>
       </c>
       <c r="F72" t="n">
-        <v>987.5038928774999</v>
+        <v>64.11056676</v>
       </c>
       <c r="G72" t="n">
-        <v>177.5062173775</v>
+        <v>963.9799010000002</v>
       </c>
       <c r="H72" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -2321,25 +2321,25 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0036373775</v>
+        <v>0.005758240000000001</v>
       </c>
       <c r="C73" t="n">
-        <v>0.00405919</v>
+        <v>0.017668</v>
       </c>
       <c r="D73" t="n">
-        <v>0.04562675000000001</v>
+        <v>0.003151239999999999</v>
       </c>
       <c r="E73" t="n">
-        <v>181.4469729375</v>
+        <v>35.00508496</v>
       </c>
       <c r="F73" t="n">
-        <v>332.5860628975</v>
+        <v>72.51165216</v>
       </c>
       <c r="G73" t="n">
-        <v>49.47749077749999</v>
+        <v>2313.01719476</v>
       </c>
       <c r="H73" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -2347,25 +2347,25 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.003373989999999999</v>
+        <v>0.0006211599999999999</v>
       </c>
       <c r="C74" t="n">
-        <v>0.00241336</v>
+        <v>0.02247456</v>
       </c>
       <c r="D74" t="n">
-        <v>0.03858693749999999</v>
+        <v>0.0004806400000000009</v>
       </c>
       <c r="E74" t="n">
-        <v>66.18772224</v>
+        <v>87.81838276000002</v>
       </c>
       <c r="F74" t="n">
-        <v>428.0407390775001</v>
+        <v>41.731193</v>
       </c>
       <c r="G74" t="n">
-        <v>41.51476171</v>
+        <v>1896.46572564</v>
       </c>
       <c r="H74" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -2373,25 +2373,25 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.00368</v>
+        <v>0.0006571599999999999</v>
       </c>
       <c r="C75" t="n">
-        <v>0.004430760000000001</v>
+        <v>0.02012496</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0417938975</v>
+        <v>0.0003850000000000007</v>
       </c>
       <c r="E75" t="n">
-        <v>91.03538604000001</v>
+        <v>57.92082335999999</v>
       </c>
       <c r="F75" t="n">
-        <v>333.1451614975</v>
+        <v>9.310840839999999</v>
       </c>
       <c r="G75" t="n">
-        <v>32.48267591</v>
+        <v>374.987173</v>
       </c>
       <c r="H75" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -2399,25 +2399,25 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0045449375</v>
+        <v>0.010525</v>
       </c>
       <c r="C76" t="n">
-        <v>0.003905277500000001</v>
+        <v>0.05911824</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0418097975</v>
+        <v>0.0009889600000000016</v>
       </c>
       <c r="E76" t="n">
-        <v>54.51120284</v>
+        <v>42.089864</v>
       </c>
       <c r="F76" t="n">
-        <v>398.61778959</v>
+        <v>23.38061204000001</v>
       </c>
       <c r="G76" t="n">
-        <v>43.21390379</v>
+        <v>788.8673360399999</v>
       </c>
       <c r="H76" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2425,25 +2425,25 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.004306777499999999</v>
+        <v>0.00818576</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0038911975</v>
+        <v>0.07597076</v>
       </c>
       <c r="D77" t="n">
-        <v>0.03681344</v>
+        <v>0.001310560000000002</v>
       </c>
       <c r="E77" t="n">
-        <v>86.0497121775</v>
+        <v>26.05020096</v>
       </c>
       <c r="F77" t="n">
-        <v>401.2468432975</v>
+        <v>21.713744</v>
       </c>
       <c r="G77" t="n">
-        <v>52.65584193750001</v>
+        <v>274.3199609599999</v>
       </c>
       <c r="H77" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -2451,25 +2451,25 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.002815999999999999</v>
+        <v>0.00345104</v>
       </c>
       <c r="C78" t="n">
-        <v>0.00585896</v>
+        <v>0.03241344</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0357751775</v>
+        <v>0.001228000000000002</v>
       </c>
       <c r="E78" t="n">
-        <v>77.68117984</v>
+        <v>49.17519184</v>
       </c>
       <c r="F78" t="n">
-        <v>261.1863279375</v>
+        <v>65.50203683999999</v>
       </c>
       <c r="G78" t="n">
-        <v>39.23196419</v>
+        <v>259.81719684</v>
       </c>
       <c r="H78" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2477,25 +2477,25 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.005880000000000001</v>
+        <v>0.012052</v>
       </c>
       <c r="C79" t="n">
-        <v>0.004344589999999999</v>
+        <v>0.03746596</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0345652975</v>
+        <v>0.003509760000000003</v>
       </c>
       <c r="E79" t="n">
-        <v>69.50356589750001</v>
+        <v>67.52196256000001</v>
       </c>
       <c r="F79" t="n">
-        <v>382.7912069375</v>
+        <v>45.226565</v>
       </c>
       <c r="G79" t="n">
-        <v>46.6326983975</v>
+        <v>1305.96491924</v>
       </c>
       <c r="H79" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -2503,25 +2503,25 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.00545164</v>
+        <v>0.007756000000000001</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0040935775</v>
+        <v>0.03376464</v>
       </c>
       <c r="D80" t="n">
-        <v>0.03213359</v>
+        <v>0.0007890000000000015</v>
       </c>
       <c r="E80" t="n">
-        <v>73.7462152775</v>
+        <v>73.56898436</v>
       </c>
       <c r="F80" t="n">
-        <v>398.337003</v>
+        <v>27.71978916</v>
       </c>
       <c r="G80" t="n">
-        <v>52.28749899749999</v>
+        <v>1666.97785696</v>
       </c>
       <c r="H80" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2529,25 +2529,25 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.002572</v>
+        <v>0.00047764</v>
       </c>
       <c r="C81" t="n">
-        <v>0.006636437500000001</v>
+        <v>0.03800276</v>
       </c>
       <c r="D81" t="n">
-        <v>0.03810743749999999</v>
+        <v>0.0003760000000000007</v>
       </c>
       <c r="E81" t="n">
-        <v>103.1073817975</v>
+        <v>54.80639104</v>
       </c>
       <c r="F81" t="n">
-        <v>343.0808959999999</v>
+        <v>9.916562559999999</v>
       </c>
       <c r="G81" t="n">
-        <v>41.5628106775</v>
+        <v>2158.905024</v>
       </c>
       <c r="H81" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -2555,25 +2555,25 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0038106975</v>
+        <v>0.00057904</v>
       </c>
       <c r="C82" t="n">
-        <v>0.00473075</v>
+        <v>0.015097</v>
       </c>
       <c r="D82" t="n">
-        <v>0.04133999999999999</v>
+        <v>0.0002400000000000004</v>
       </c>
       <c r="E82" t="n">
-        <v>99.40919978999999</v>
+        <v>38.82401136</v>
       </c>
       <c r="F82" t="n">
-        <v>668.5242511599999</v>
+        <v>15.66862144</v>
       </c>
       <c r="G82" t="n">
-        <v>102.62110239</v>
+        <v>104.94339344</v>
       </c>
       <c r="H82" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -2581,25 +2581,25 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.00176011</v>
+        <v>0.008565440000000001</v>
       </c>
       <c r="C83" t="n">
-        <v>0.00366739</v>
+        <v>0.03618256</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0469369375</v>
+        <v>0.001523360000000003</v>
       </c>
       <c r="E83" t="n">
-        <v>66.20818099999998</v>
+        <v>13.96432144</v>
       </c>
       <c r="F83" t="n">
-        <v>516.288204</v>
+        <v>75.55620256</v>
       </c>
       <c r="G83" t="n">
-        <v>74.67519974999999</v>
+        <v>364.74044336</v>
       </c>
       <c r="H83" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -2607,25 +2607,25 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.00262391</v>
+        <v>0.00522244</v>
       </c>
       <c r="C84" t="n">
-        <v>0.005039</v>
+        <v>0.03661796</v>
       </c>
       <c r="D84" t="n">
-        <v>0.03451699749999999</v>
+        <v>0.002590440000000005</v>
       </c>
       <c r="E84" t="n">
-        <v>100.5545394775</v>
+        <v>58.00719299999998</v>
       </c>
       <c r="F84" t="n">
-        <v>545.0231395774999</v>
+        <v>81.64637796</v>
       </c>
       <c r="G84" t="n">
-        <v>93.73689039000001</v>
+        <v>327.15334676</v>
       </c>
       <c r="H84" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -2633,25 +2633,25 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0027979375</v>
+        <v>0.0008170000000000001</v>
       </c>
       <c r="C85" t="n">
-        <v>0.00410219</v>
+        <v>0.04265136</v>
       </c>
       <c r="D85" t="n">
-        <v>0.04309363999999999</v>
+        <v>0.0009280400000000016</v>
       </c>
       <c r="E85" t="n">
-        <v>76.05328059749999</v>
+        <v>20.36114736</v>
       </c>
       <c r="F85" t="n">
-        <v>462.0076109775</v>
+        <v>19.68529204</v>
       </c>
       <c r="G85" t="n">
-        <v>82.2725711775</v>
+        <v>460.0115593600001</v>
       </c>
       <c r="H85" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -2659,25 +2659,25 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0021788975</v>
+        <v>0.00238656</v>
       </c>
       <c r="C86" t="n">
-        <v>0.004194440000000001</v>
+        <v>0.01558656</v>
       </c>
       <c r="D86" t="n">
-        <v>0.03529404</v>
+        <v>0.0008105600000000008</v>
       </c>
       <c r="E86" t="n">
-        <v>70.3901317975</v>
+        <v>37.57048399999999</v>
       </c>
       <c r="F86" t="n">
-        <v>485.0176879974999</v>
+        <v>6.11902784</v>
       </c>
       <c r="G86" t="n">
-        <v>63.7199906775</v>
+        <v>310.84826564</v>
       </c>
       <c r="H86" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -2685,25 +2685,25 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.00265671</v>
+        <v>0.005585</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0030207975</v>
+        <v>0.024628</v>
       </c>
       <c r="D87" t="n">
-        <v>0.03526050999999999</v>
+        <v>0.003586239999999998</v>
       </c>
       <c r="E87" t="n">
-        <v>60.24976675000001</v>
+        <v>28.55398304</v>
       </c>
       <c r="F87" t="n">
-        <v>531.29444616</v>
+        <v>75.958061</v>
       </c>
       <c r="G87" t="n">
-        <v>61.5654031975</v>
+        <v>2688.82436516</v>
       </c>
       <c r="H87" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -2711,25 +2711,25 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.003233709999999999</v>
+        <v>0.0003809999999999998</v>
       </c>
       <c r="C88" t="n">
-        <v>0.00458631</v>
+        <v>0.02154416</v>
       </c>
       <c r="D88" t="n">
-        <v>0.03464584</v>
+        <v>0.0003342400000000006</v>
       </c>
       <c r="E88" t="n">
-        <v>74.13769416</v>
+        <v>72.60010399999999</v>
       </c>
       <c r="F88" t="n">
-        <v>702.1814982975001</v>
+        <v>18.16316004</v>
       </c>
       <c r="G88" t="n">
-        <v>113.3047680975</v>
+        <v>1366.01378196</v>
       </c>
       <c r="H88" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -2737,24 +2737,7096 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0029248775</v>
+        <v>0.001164</v>
       </c>
       <c r="C89" t="n">
-        <v>0.007116877499999999</v>
+        <v>0.00972836</v>
       </c>
       <c r="D89" t="n">
-        <v>0.05885475999999999</v>
+        <v>0.0004361600000000007</v>
       </c>
       <c r="E89" t="n">
-        <v>166.2766501975</v>
+        <v>84.16671296</v>
       </c>
       <c r="F89" t="n">
-        <v>715.9529033975</v>
+        <v>27.43868276</v>
       </c>
       <c r="G89" t="n">
-        <v>128.32795875</v>
+        <v>347.82917396</v>
       </c>
       <c r="H89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0.00540656</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.05186799999999999</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.002150760000000004</v>
+      </c>
+      <c r="E90" t="n">
+        <v>55.977353</v>
+      </c>
+      <c r="F90" t="n">
+        <v>36.31765504</v>
+      </c>
+      <c r="G90" t="n">
+        <v>914.3390307599999</v>
+      </c>
+      <c r="H90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0.01105716</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.04530115999999999</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.001021440000000002</v>
+      </c>
+      <c r="E91" t="n">
+        <v>28.08350064</v>
+      </c>
+      <c r="F91" t="n">
+        <v>15.02396244</v>
+      </c>
+      <c r="G91" t="n">
+        <v>1123.621384</v>
+      </c>
+      <c r="H91" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0.00080336</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0.06495603999999999</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.0009705600000000018</v>
+      </c>
+      <c r="E92" t="n">
+        <v>23.02594896</v>
+      </c>
+      <c r="F92" t="n">
+        <v>10.845464</v>
+      </c>
+      <c r="G92" t="n">
+        <v>1153.65845504</v>
+      </c>
+      <c r="H92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0.0006345599999999999</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.00831136</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.0002827600000000005</v>
+      </c>
+      <c r="E93" t="n">
+        <v>29.87600416</v>
+      </c>
+      <c r="F93" t="n">
+        <v>3.43631764</v>
+      </c>
+      <c r="G93" t="n">
+        <v>37.629153</v>
+      </c>
+      <c r="H93" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0.01019024</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0.04786324</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.002567040000000004</v>
+      </c>
+      <c r="E94" t="n">
+        <v>40.75620356</v>
+      </c>
+      <c r="F94" t="n">
+        <v>56.08740335999999</v>
+      </c>
+      <c r="G94" t="n">
+        <v>879.5219840000001</v>
+      </c>
+      <c r="H94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0.00356464</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.05623476</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.001069000000000002</v>
+      </c>
+      <c r="E95" t="n">
+        <v>39.36849523999999</v>
+      </c>
+      <c r="F95" t="n">
+        <v>12.391973</v>
+      </c>
+      <c r="G95" t="n">
+        <v>622.88080784</v>
+      </c>
+      <c r="H95" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0.0005081600000000001</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0.01906164</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.0002490000000000005</v>
+      </c>
+      <c r="E96" t="n">
+        <v>113.25712496</v>
+      </c>
+      <c r="F96" t="n">
+        <v>25.458228</v>
+      </c>
+      <c r="G96" t="n">
+        <v>311.476597</v>
+      </c>
+      <c r="H96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0.00053664</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0.00782644</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0.001408000000000003</v>
+      </c>
+      <c r="E97" t="n">
+        <v>46.71337556</v>
+      </c>
+      <c r="F97" t="n">
+        <v>40.84803396000001</v>
+      </c>
+      <c r="G97" t="n">
+        <v>62.97467984</v>
+      </c>
+      <c r="H97" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0.00186804</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0.006768639999999999</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0.000568040000000001</v>
+      </c>
+      <c r="E98" t="n">
+        <v>24.737897</v>
+      </c>
+      <c r="F98" t="n">
+        <v>13.82527044</v>
+      </c>
+      <c r="G98" t="n">
+        <v>108.008737</v>
+      </c>
+      <c r="H98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0.01369636</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0.04501604000000001</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0.001514760000000001</v>
+      </c>
+      <c r="E99" t="n">
+        <v>20.81061796</v>
+      </c>
+      <c r="F99" t="n">
+        <v>102.32762736</v>
+      </c>
+      <c r="G99" t="n">
+        <v>2587.03349716</v>
+      </c>
+      <c r="H99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>0.003841</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0.05130176000000002</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0.002885440000000005</v>
+      </c>
+      <c r="E100" t="n">
+        <v>39.98322004</v>
+      </c>
+      <c r="F100" t="n">
+        <v>19.87944596</v>
+      </c>
+      <c r="G100" t="n">
+        <v>3167.511267999999</v>
+      </c>
+      <c r="H100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>0.00037344</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0.007258560000000001</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0.0005505600000000009</v>
+      </c>
+      <c r="E101" t="n">
+        <v>9.157615359999999</v>
+      </c>
+      <c r="F101" t="n">
+        <v>24.27925556</v>
+      </c>
+      <c r="G101" t="n">
+        <v>406.81811364</v>
+      </c>
+      <c r="H101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>0.01670064</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0.05592276000000001</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0.002566760000000005</v>
+      </c>
+      <c r="E102" t="n">
+        <v>27.25750356</v>
+      </c>
+      <c r="F102" t="n">
+        <v>16.34870816</v>
+      </c>
+      <c r="G102" t="n">
+        <v>538.067545</v>
+      </c>
+      <c r="H102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>0.008980999999999998</v>
+      </c>
+      <c r="C103" t="n">
+        <v>0.09172883999999999</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0.002429160000000003</v>
+      </c>
+      <c r="E103" t="n">
+        <v>20.36317424</v>
+      </c>
+      <c r="F103" t="n">
+        <v>13.957068</v>
+      </c>
+      <c r="G103" t="n">
+        <v>1293.95324564</v>
+      </c>
+      <c r="H103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>0.0005048400000000001</v>
+      </c>
+      <c r="C104" t="n">
+        <v>0.00812704</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0.0003977600000000007</v>
+      </c>
+      <c r="E104" t="n">
+        <v>12.99643124</v>
+      </c>
+      <c r="F104" t="n">
+        <v>18.00140724</v>
+      </c>
+      <c r="G104" t="n">
+        <v>401.6869067600001</v>
+      </c>
+      <c r="H104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0.006884640000000001</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0.02539156</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0.002688960000000003</v>
+      </c>
+      <c r="E105" t="n">
+        <v>28.35672196</v>
+      </c>
+      <c r="F105" t="n">
+        <v>37.74385296</v>
+      </c>
+      <c r="G105" t="n">
+        <v>770.274236</v>
+      </c>
+      <c r="H105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>0.00861924</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0.047032</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0.001257640000000002</v>
+      </c>
+      <c r="E106" t="n">
+        <v>19.56553796</v>
+      </c>
+      <c r="F106" t="n">
+        <v>20.30070624</v>
+      </c>
+      <c r="G106" t="n">
+        <v>1268.41702384</v>
+      </c>
+      <c r="H106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>0.0006824399999999999</v>
+      </c>
+      <c r="C107" t="n">
+        <v>0.04754656000000001</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0.0004971600000000008</v>
+      </c>
+      <c r="E107" t="n">
+        <v>15.26471296</v>
+      </c>
+      <c r="F107" t="n">
+        <v>8.282741960000001</v>
+      </c>
+      <c r="G107" t="n">
+        <v>777.6132520000001</v>
+      </c>
+      <c r="H107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>0.00262496</v>
+      </c>
+      <c r="C108" t="n">
+        <v>0.00949616</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0.001155040000000002</v>
+      </c>
+      <c r="E108" t="n">
+        <v>13.97890336</v>
+      </c>
+      <c r="F108" t="n">
+        <v>30.94563823999999</v>
+      </c>
+      <c r="G108" t="n">
+        <v>701.0759769600002</v>
+      </c>
+      <c r="H108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>0.008838760000000001</v>
+      </c>
+      <c r="C109" t="n">
+        <v>0.03272784</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0.002094240000000004</v>
+      </c>
+      <c r="E109" t="n">
+        <v>26.82494864</v>
+      </c>
+      <c r="F109" t="n">
+        <v>35.98653696</v>
+      </c>
+      <c r="G109" t="n">
+        <v>3241.12808576</v>
+      </c>
+      <c r="H109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>0.00076224</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0.09547076</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.0004656400000000008</v>
+      </c>
+      <c r="E110" t="n">
+        <v>49.597556</v>
+      </c>
+      <c r="F110" t="n">
+        <v>23.87645104</v>
+      </c>
+      <c r="G110" t="n">
+        <v>1893.09736644</v>
+      </c>
+      <c r="H110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0.00143844</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0.01225556</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0.0004944400000000008</v>
+      </c>
+      <c r="E111" t="n">
+        <v>9.237291839999999</v>
+      </c>
+      <c r="F111" t="n">
+        <v>9.405513000000001</v>
+      </c>
+      <c r="G111" t="n">
+        <v>388.62527264</v>
+      </c>
+      <c r="H111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0.00469396</v>
+      </c>
+      <c r="C112" t="n">
+        <v>0.015261</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0.0008920000000000014</v>
+      </c>
+      <c r="E112" t="n">
+        <v>26.95636224</v>
+      </c>
+      <c r="F112" t="n">
+        <v>58.52792676</v>
+      </c>
+      <c r="G112" t="n">
+        <v>2384.973609159999</v>
+      </c>
+      <c r="H112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0.00042836</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0.03354404</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0.0007881600000000014</v>
+      </c>
+      <c r="E113" t="n">
+        <v>41.16746276000001</v>
+      </c>
+      <c r="F113" t="n">
+        <v>16.25850036</v>
+      </c>
+      <c r="G113" t="n">
+        <v>2459.93806256</v>
+      </c>
+      <c r="H113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0.0004395599999999999</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0.00912</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0.0005209600000000009</v>
+      </c>
+      <c r="E114" t="n">
+        <v>12.68888515999999</v>
+      </c>
+      <c r="F114" t="n">
+        <v>11.15270676</v>
+      </c>
+      <c r="G114" t="n">
+        <v>181.733564</v>
+      </c>
+      <c r="H114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0.008725640000000002</v>
+      </c>
+      <c r="C115" t="n">
+        <v>0.04081700000000001</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0.002350440000000004</v>
+      </c>
+      <c r="E115" t="n">
+        <v>25.689972</v>
+      </c>
+      <c r="F115" t="n">
+        <v>28.62580096</v>
+      </c>
+      <c r="G115" t="n">
+        <v>436.19146244</v>
+      </c>
+      <c r="H115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0.006417759999999999</v>
+      </c>
+      <c r="C116" t="n">
+        <v>0.073549</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0.001148160000000002</v>
+      </c>
+      <c r="E116" t="n">
+        <v>30.04692436</v>
+      </c>
+      <c r="F116" t="n">
+        <v>23.98139796</v>
+      </c>
+      <c r="G116" t="n">
+        <v>696.75289744</v>
+      </c>
+      <c r="H116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0.0006697599999999999</v>
+      </c>
+      <c r="C117" t="n">
+        <v>0.01622644</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0.0002526400000000004</v>
+      </c>
+      <c r="E117" t="n">
+        <v>36.19198004</v>
+      </c>
+      <c r="F117" t="n">
+        <v>12.585141</v>
+      </c>
+      <c r="G117" t="n">
+        <v>376.2618440399999</v>
+      </c>
+      <c r="H117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0.011916</v>
+      </c>
+      <c r="C118" t="n">
+        <v>0.04192244000000001</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0.003300640000000004</v>
+      </c>
+      <c r="E118" t="n">
+        <v>50.97850383999999</v>
+      </c>
+      <c r="F118" t="n">
+        <v>54.77787076000001</v>
+      </c>
+      <c r="G118" t="n">
+        <v>953.4007849599999</v>
+      </c>
+      <c r="H118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0.00858516</v>
+      </c>
+      <c r="C119" t="n">
+        <v>0.08507683999999999</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0.001241440000000002</v>
+      </c>
+      <c r="E119" t="n">
+        <v>167.51054596</v>
+      </c>
+      <c r="F119" t="n">
+        <v>29.98452416</v>
+      </c>
+      <c r="G119" t="n">
+        <v>799.1876128399999</v>
+      </c>
+      <c r="H119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0.00059684</v>
+      </c>
+      <c r="C120" t="n">
+        <v>0.04276900000000002</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0.0004238400000000007</v>
+      </c>
+      <c r="E120" t="n">
+        <v>38.93296163999999</v>
+      </c>
+      <c r="F120" t="n">
+        <v>23.492473</v>
+      </c>
+      <c r="G120" t="n">
+        <v>462.47819584</v>
+      </c>
+      <c r="H120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>0.00169056</v>
+      </c>
+      <c r="C121" t="n">
+        <v>0.00528244</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0.0005736400000000011</v>
+      </c>
+      <c r="E121" t="n">
+        <v>15.566576</v>
+      </c>
+      <c r="F121" t="n">
+        <v>6.308312160000002</v>
+      </c>
+      <c r="G121" t="n">
+        <v>117.97353476</v>
+      </c>
+      <c r="H121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>0.004733160000000001</v>
+      </c>
+      <c r="C122" t="n">
+        <v>0.031756</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0.001421640000000002</v>
+      </c>
+      <c r="E122" t="n">
+        <v>21.90769104</v>
+      </c>
+      <c r="F122" t="n">
+        <v>39.76841844</v>
+      </c>
+      <c r="G122" t="n">
+        <v>2998.86241316</v>
+      </c>
+      <c r="H122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>0.00104416</v>
+      </c>
+      <c r="C123" t="n">
+        <v>0.04182404</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0.001949</v>
+      </c>
+      <c r="E123" t="n">
+        <v>65.51331983999999</v>
+      </c>
+      <c r="F123" t="n">
+        <v>50.89725764</v>
+      </c>
+      <c r="G123" t="n">
+        <v>2985.357144</v>
+      </c>
+      <c r="H123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>0.0004886399999999999</v>
+      </c>
+      <c r="C124" t="n">
+        <v>0.010493</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0.0002361600000000004</v>
+      </c>
+      <c r="E124" t="n">
+        <v>17.36721616</v>
+      </c>
+      <c r="F124" t="n">
+        <v>2.41454576</v>
+      </c>
+      <c r="G124" t="n">
+        <v>267.85567156</v>
+      </c>
+      <c r="H124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>0.01559856</v>
+      </c>
+      <c r="C125" t="n">
+        <v>0.07367264</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0.002196160000000001</v>
+      </c>
+      <c r="E125" t="n">
+        <v>12.81946464</v>
+      </c>
+      <c r="F125" t="n">
+        <v>42.38292596</v>
+      </c>
+      <c r="G125" t="n">
+        <v>823.0925694399999</v>
+      </c>
+      <c r="H125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>0.01349396</v>
+      </c>
+      <c r="C126" t="n">
+        <v>0.12228416</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0.002666560000000003</v>
+      </c>
+      <c r="E126" t="n">
+        <v>51.27719876</v>
+      </c>
+      <c r="F126" t="n">
+        <v>19.36133636</v>
+      </c>
+      <c r="G126" t="n">
+        <v>882.8849400000003</v>
+      </c>
+      <c r="H126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>0.000369</v>
+      </c>
+      <c r="C127" t="n">
+        <v>0.037356</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0.0004611600000000008</v>
+      </c>
+      <c r="E127" t="n">
+        <v>27.49639744</v>
+      </c>
+      <c r="F127" t="n">
+        <v>12.30698164</v>
+      </c>
+      <c r="G127" t="n">
+        <v>485.73671924</v>
+      </c>
+      <c r="H127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>0.00140164</v>
+      </c>
+      <c r="C128" t="n">
+        <v>0.01039584</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0.0003680000000000007</v>
+      </c>
+      <c r="E128" t="n">
+        <v>11.62948544</v>
+      </c>
+      <c r="F128" t="n">
+        <v>14.35862704</v>
+      </c>
+      <c r="G128" t="n">
+        <v>342.07413024</v>
+      </c>
+      <c r="H128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>0.005997760000000001</v>
+      </c>
+      <c r="C129" t="n">
+        <v>0.027505</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0.0007680000000000013</v>
+      </c>
+      <c r="E129" t="n">
+        <v>19.85728784</v>
+      </c>
+      <c r="F129" t="n">
+        <v>12.86505776</v>
+      </c>
+      <c r="G129" t="n">
+        <v>4176.57738224</v>
+      </c>
+      <c r="H129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>0.00130356</v>
+      </c>
+      <c r="C130" t="n">
+        <v>0.05457699999999999</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0.0009410000000000018</v>
+      </c>
+      <c r="E130" t="n">
+        <v>102.57403476</v>
+      </c>
+      <c r="F130" t="n">
+        <v>16.88505664</v>
+      </c>
+      <c r="G130" t="n">
+        <v>3711.58943796</v>
+      </c>
+      <c r="H130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>0.00070656</v>
+      </c>
+      <c r="C131" t="n">
+        <v>0.01750304</v>
+      </c>
+      <c r="D131" t="n">
+        <v>0.0002760000000000005</v>
+      </c>
+      <c r="E131" t="n">
+        <v>20.84765216</v>
+      </c>
+      <c r="F131" t="n">
+        <v>3.73327984</v>
+      </c>
+      <c r="G131" t="n">
+        <v>230.814905</v>
+      </c>
+      <c r="H131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>0.01443696</v>
+      </c>
+      <c r="C132" t="n">
+        <v>0.07826900000000001</v>
+      </c>
+      <c r="D132" t="n">
+        <v>0.008001639999999997</v>
+      </c>
+      <c r="E132" t="n">
+        <v>56.93183923999999</v>
+      </c>
+      <c r="F132" t="n">
+        <v>180.73497316</v>
+      </c>
+      <c r="G132" t="n">
+        <v>1326.694764</v>
+      </c>
+      <c r="H132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>0.00381716</v>
+      </c>
+      <c r="C133" t="n">
+        <v>0.11416596</v>
+      </c>
+      <c r="D133" t="n">
+        <v>0.00206676</v>
+      </c>
+      <c r="E133" t="n">
+        <v>77.47728463999999</v>
+      </c>
+      <c r="F133" t="n">
+        <v>62.96177776</v>
+      </c>
+      <c r="G133" t="n">
+        <v>1774.35252016</v>
+      </c>
+      <c r="H133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>0.0004976399999999999</v>
+      </c>
+      <c r="C134" t="n">
+        <v>0.01373764</v>
+      </c>
+      <c r="D134" t="n">
+        <v>0.001076960000000002</v>
+      </c>
+      <c r="E134" t="n">
+        <v>47.60504176000001</v>
+      </c>
+      <c r="F134" t="n">
+        <v>29.93874499999999</v>
+      </c>
+      <c r="G134" t="n">
+        <v>736.50142196</v>
+      </c>
+      <c r="H134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>0.005504360000000001</v>
+      </c>
+      <c r="C135" t="n">
+        <v>0.21675044</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0.25881856</v>
+      </c>
+      <c r="E135" t="n">
+        <v>48378.65598900001</v>
+      </c>
+      <c r="F135" t="n">
+        <v>240.08708804</v>
+      </c>
+      <c r="G135" t="n">
+        <v>335.513629</v>
+      </c>
+      <c r="H135" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>0.01122404</v>
+      </c>
+      <c r="C136" t="n">
+        <v>0.05401316</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0.007169159999999999</v>
+      </c>
+      <c r="E136" t="n">
+        <v>45151.01582416</v>
+      </c>
+      <c r="F136" t="n">
+        <v>1748.80811184</v>
+      </c>
+      <c r="G136" t="n">
+        <v>2732.280633</v>
+      </c>
+      <c r="H136" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>0.008572040000000001</v>
+      </c>
+      <c r="C137" t="n">
+        <v>0.22688144</v>
+      </c>
+      <c r="D137" t="n">
+        <v>0.23790336</v>
+      </c>
+      <c r="E137" t="n">
+        <v>17489.70694244</v>
+      </c>
+      <c r="F137" t="n">
+        <v>409.032516</v>
+      </c>
+      <c r="G137" t="n">
+        <v>384.62419876</v>
+      </c>
+      <c r="H137" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>0.00181776</v>
+      </c>
+      <c r="C138" t="n">
+        <v>0.17536256</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0.05881024</v>
+      </c>
+      <c r="E138" t="n">
+        <v>25521.46883744</v>
+      </c>
+      <c r="F138" t="n">
+        <v>293.88524704</v>
+      </c>
+      <c r="G138" t="n">
+        <v>39.61883216</v>
+      </c>
+      <c r="H138" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>0.007384160000000001</v>
+      </c>
+      <c r="C139" t="n">
+        <v>0.03760016</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0.05196096000000001</v>
+      </c>
+      <c r="E139" t="n">
+        <v>22285.3909</v>
+      </c>
+      <c r="F139" t="n">
+        <v>639.0656320399999</v>
+      </c>
+      <c r="G139" t="n">
+        <v>412.24479636</v>
+      </c>
+      <c r="H139" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>0.005249959999999999</v>
+      </c>
+      <c r="C140" t="n">
+        <v>0.159525</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0.4309761600000002</v>
+      </c>
+      <c r="E140" t="n">
+        <v>17655.672616</v>
+      </c>
+      <c r="F140" t="n">
+        <v>452.86332704</v>
+      </c>
+      <c r="G140" t="n">
+        <v>756.82522176</v>
+      </c>
+      <c r="H140" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>0.0005795600000000001</v>
+      </c>
+      <c r="C141" t="n">
+        <v>0.01304276</v>
+      </c>
+      <c r="D141" t="n">
+        <v>0.002085000000000002</v>
+      </c>
+      <c r="E141" t="n">
+        <v>7830.370508639999</v>
+      </c>
+      <c r="F141" t="n">
+        <v>176.70936304</v>
+      </c>
+      <c r="G141" t="n">
+        <v>30.25559316</v>
+      </c>
+      <c r="H141" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>0.006153</v>
+      </c>
+      <c r="C142" t="n">
+        <v>0.08398816000000001</v>
+      </c>
+      <c r="D142" t="n">
+        <v>0.302793</v>
+      </c>
+      <c r="E142" t="n">
+        <v>13888.797656</v>
+      </c>
+      <c r="F142" t="n">
+        <v>335.300092</v>
+      </c>
+      <c r="G142" t="n">
+        <v>453.3067315599999</v>
+      </c>
+      <c r="H142" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>0.004497</v>
+      </c>
+      <c r="C143" t="n">
+        <v>0.02124624</v>
+      </c>
+      <c r="D143" t="n">
+        <v>0.005941000000000001</v>
+      </c>
+      <c r="E143" t="n">
+        <v>11485.826949</v>
+      </c>
+      <c r="F143" t="n">
+        <v>273.59365284</v>
+      </c>
+      <c r="G143" t="n">
+        <v>558.77987396</v>
+      </c>
+      <c r="H143" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>0.006398239999999999</v>
+      </c>
+      <c r="C144" t="n">
+        <v>0.2539083599999999</v>
+      </c>
+      <c r="D144" t="n">
+        <v>0.28130404</v>
+      </c>
+      <c r="E144" t="n">
+        <v>17403.72828404</v>
+      </c>
+      <c r="F144" t="n">
+        <v>411.9850888399999</v>
+      </c>
+      <c r="G144" t="n">
+        <v>497.60319396</v>
+      </c>
+      <c r="H144" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>0.00106224</v>
+      </c>
+      <c r="C145" t="n">
+        <v>0.07560723999999999</v>
+      </c>
+      <c r="D145" t="n">
+        <v>0.03391984</v>
+      </c>
+      <c r="E145" t="n">
+        <v>14950.423192</v>
+      </c>
+      <c r="F145" t="n">
+        <v>187.47850724</v>
+      </c>
+      <c r="G145" t="n">
+        <v>100.49676244</v>
+      </c>
+      <c r="H145" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>0.00252916</v>
+      </c>
+      <c r="C146" t="n">
+        <v>0.03248384</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0.09502036</v>
+      </c>
+      <c r="E146" t="n">
+        <v>27385.85570676</v>
+      </c>
+      <c r="F146" t="n">
+        <v>506.82445504</v>
+      </c>
+      <c r="G146" t="n">
+        <v>554.83494816</v>
+      </c>
+      <c r="H146" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>0.005005760000000001</v>
+      </c>
+      <c r="C147" t="n">
+        <v>0.12378576</v>
+      </c>
+      <c r="D147" t="n">
+        <v>0.3555680000000001</v>
+      </c>
+      <c r="E147" t="n">
+        <v>17503.508416</v>
+      </c>
+      <c r="F147" t="n">
+        <v>262.65213844</v>
+      </c>
+      <c r="G147" t="n">
+        <v>751.9567859599999</v>
+      </c>
+      <c r="H147" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>0.00100624</v>
+      </c>
+      <c r="C148" t="n">
+        <v>0.008336159999999999</v>
+      </c>
+      <c r="D148" t="n">
+        <v>0.0004249600000000008</v>
+      </c>
+      <c r="E148" t="n">
+        <v>2967.11584304</v>
+      </c>
+      <c r="F148" t="n">
+        <v>49.98176256</v>
+      </c>
+      <c r="G148" t="n">
+        <v>57.01912356</v>
+      </c>
+      <c r="H148" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>0.00340884</v>
+      </c>
+      <c r="C149" t="n">
+        <v>0.117977</v>
+      </c>
+      <c r="D149" t="n">
+        <v>0.35449584</v>
+      </c>
+      <c r="E149" t="n">
+        <v>8070.643752</v>
+      </c>
+      <c r="F149" t="n">
+        <v>244.584249</v>
+      </c>
+      <c r="G149" t="n">
+        <v>523.9865158399999</v>
+      </c>
+      <c r="H149" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>0.005217960000000001</v>
+      </c>
+      <c r="C150" t="n">
+        <v>0.023632</v>
+      </c>
+      <c r="D150" t="n">
+        <v>0.003617960000000001</v>
+      </c>
+      <c r="E150" t="n">
+        <v>13769.109505</v>
+      </c>
+      <c r="F150" t="n">
+        <v>159.501176</v>
+      </c>
+      <c r="G150" t="n">
+        <v>180.73543844</v>
+      </c>
+      <c r="H150" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>0.00739616</v>
+      </c>
+      <c r="C151" t="n">
+        <v>0.219941</v>
+      </c>
+      <c r="D151" t="n">
+        <v>0.29456244</v>
+      </c>
+      <c r="E151" t="n">
+        <v>22574.43322864</v>
+      </c>
+      <c r="F151" t="n">
+        <v>455.704152</v>
+      </c>
+      <c r="G151" t="n">
+        <v>518.27585264</v>
+      </c>
+      <c r="H151" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>0.00103696</v>
+      </c>
+      <c r="C152" t="n">
+        <v>0.16465776</v>
+      </c>
+      <c r="D152" t="n">
+        <v>0.06791184000000001</v>
+      </c>
+      <c r="E152" t="n">
+        <v>25081.60111444</v>
+      </c>
+      <c r="F152" t="n">
+        <v>163.022637</v>
+      </c>
+      <c r="G152" t="n">
+        <v>298.90422784</v>
+      </c>
+      <c r="H152" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>0.00600724</v>
+      </c>
+      <c r="C153" t="n">
+        <v>0.02251156</v>
+      </c>
+      <c r="D153" t="n">
+        <v>0.03970244</v>
+      </c>
+      <c r="E153" t="n">
+        <v>23772.95127104</v>
+      </c>
+      <c r="F153" t="n">
+        <v>333.77297156</v>
+      </c>
+      <c r="G153" t="n">
+        <v>1783.973508</v>
+      </c>
+      <c r="H153" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>0.008148840000000001</v>
+      </c>
+      <c r="C154" t="n">
+        <v>0.15439524</v>
+      </c>
+      <c r="D154" t="n">
+        <v>0.33778404</v>
+      </c>
+      <c r="E154" t="n">
+        <v>7143.570003360001</v>
+      </c>
+      <c r="F154" t="n">
+        <v>514.86304004</v>
+      </c>
+      <c r="G154" t="n">
+        <v>62.88507715999999</v>
+      </c>
+      <c r="H154" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>0.00063524</v>
+      </c>
+      <c r="C155" t="n">
+        <v>0.004601</v>
+      </c>
+      <c r="D155" t="n">
+        <v>0.000539360000000001</v>
+      </c>
+      <c r="E155" t="n">
+        <v>5087.17963364</v>
+      </c>
+      <c r="F155" t="n">
+        <v>114.89716356</v>
+      </c>
+      <c r="G155" t="n">
+        <v>45.83004724000001</v>
+      </c>
+      <c r="H155" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>0.00477824</v>
+      </c>
+      <c r="C156" t="n">
+        <v>0.05976943999999999</v>
+      </c>
+      <c r="D156" t="n">
+        <v>0.33105744</v>
+      </c>
+      <c r="E156" t="n">
+        <v>6881.377588839999</v>
+      </c>
+      <c r="F156" t="n">
+        <v>110.388453</v>
+      </c>
+      <c r="G156" t="n">
+        <v>567.9394582399999</v>
+      </c>
+      <c r="H156" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>0.002988</v>
+      </c>
+      <c r="C157" t="n">
+        <v>0.03003776</v>
+      </c>
+      <c r="D157" t="n">
+        <v>0.10277776</v>
+      </c>
+      <c r="E157" t="n">
+        <v>27675.79914</v>
+      </c>
+      <c r="F157" t="n">
+        <v>125.05752704</v>
+      </c>
+      <c r="G157" t="n">
+        <v>556.29317584</v>
+      </c>
+      <c r="H157" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>0.0009729999999999998</v>
+      </c>
+      <c r="C158" t="n">
+        <v>0.06741184</v>
+      </c>
+      <c r="D158" t="n">
+        <v>0.02652404</v>
+      </c>
+      <c r="E158" t="n">
+        <v>6886.436878240001</v>
+      </c>
+      <c r="F158" t="n">
+        <v>118.808793</v>
+      </c>
+      <c r="G158" t="n">
+        <v>68.13092496</v>
+      </c>
+      <c r="H158" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>0.00130964</v>
+      </c>
+      <c r="C159" t="n">
+        <v>0.1948710399999999</v>
+      </c>
+      <c r="D159" t="n">
+        <v>0.10906176</v>
+      </c>
+      <c r="E159" t="n">
+        <v>13758.47558864</v>
+      </c>
+      <c r="F159" t="n">
+        <v>111.16918916</v>
+      </c>
+      <c r="G159" t="n">
+        <v>185.243916</v>
+      </c>
+      <c r="H159" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>0.00267556</v>
+      </c>
+      <c r="C160" t="n">
+        <v>0.009968640000000003</v>
+      </c>
+      <c r="D160" t="n">
+        <v>0.02446496</v>
+      </c>
+      <c r="E160" t="n">
+        <v>32882.79192900001</v>
+      </c>
+      <c r="F160" t="n">
+        <v>846.8675480000001</v>
+      </c>
+      <c r="G160" t="n">
+        <v>127.77491796</v>
+      </c>
+      <c r="H160" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>0.007108639999999999</v>
+      </c>
+      <c r="C161" t="n">
+        <v>0.19645824</v>
+      </c>
+      <c r="D161" t="n">
+        <v>0.242845</v>
+      </c>
+      <c r="E161" t="n">
+        <v>16146.09768496</v>
+      </c>
+      <c r="F161" t="n">
+        <v>520.5055665599998</v>
+      </c>
+      <c r="G161" t="n">
+        <v>225.10182816</v>
+      </c>
+      <c r="H161" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>0.00137796</v>
+      </c>
+      <c r="C162" t="n">
+        <v>0.06060944</v>
+      </c>
+      <c r="D162" t="n">
+        <v>0.00385524</v>
+      </c>
+      <c r="E162" t="n">
+        <v>11255.62274496</v>
+      </c>
+      <c r="F162" t="n">
+        <v>143.182636</v>
+      </c>
+      <c r="G162" t="n">
+        <v>126.68071236</v>
+      </c>
+      <c r="H162" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>0.010864</v>
+      </c>
+      <c r="C163" t="n">
+        <v>0.01800096</v>
+      </c>
+      <c r="D163" t="n">
+        <v>0.23543024</v>
+      </c>
+      <c r="E163" t="n">
+        <v>12899.57838484</v>
+      </c>
+      <c r="F163" t="n">
+        <v>496.81844976</v>
+      </c>
+      <c r="G163" t="n">
+        <v>890.85939824</v>
+      </c>
+      <c r="H163" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>0.01075344</v>
+      </c>
+      <c r="C164" t="n">
+        <v>0.09223700000000001</v>
+      </c>
+      <c r="D164" t="n">
+        <v>0.29980896</v>
+      </c>
+      <c r="E164" t="n">
+        <v>14073.50417524</v>
+      </c>
+      <c r="F164" t="n">
+        <v>415.8077723599999</v>
+      </c>
+      <c r="G164" t="n">
+        <v>834.52564516</v>
+      </c>
+      <c r="H164" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>0.00381476</v>
+      </c>
+      <c r="C165" t="n">
+        <v>0.01380384</v>
+      </c>
+      <c r="D165" t="n">
+        <v>0.002214240000000002</v>
+      </c>
+      <c r="E165" t="n">
+        <v>10234.02708644</v>
+      </c>
+      <c r="F165" t="n">
+        <v>286.68766196</v>
+      </c>
+      <c r="G165" t="n">
+        <v>224.67465396</v>
+      </c>
+      <c r="H165" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>0.01003236</v>
+      </c>
+      <c r="C166" t="n">
+        <v>0.08624035999999999</v>
+      </c>
+      <c r="D166" t="n">
+        <v>0.3452</v>
+      </c>
+      <c r="E166" t="n">
+        <v>14576.706149</v>
+      </c>
+      <c r="F166" t="n">
+        <v>96.62231056</v>
+      </c>
+      <c r="G166" t="n">
+        <v>985.0313958400001</v>
+      </c>
+      <c r="H166" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>0.003095560000000001</v>
+      </c>
+      <c r="C167" t="n">
+        <v>0.01045824</v>
+      </c>
+      <c r="D167" t="n">
+        <v>0.03861556</v>
+      </c>
+      <c r="E167" t="n">
+        <v>13433.63196624</v>
+      </c>
+      <c r="F167" t="n">
+        <v>189.08482944</v>
+      </c>
+      <c r="G167" t="n">
+        <v>96.89132500000001</v>
+      </c>
+      <c r="H167" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>0.002816000000000001</v>
+      </c>
+      <c r="C168" t="n">
+        <v>0.15890176</v>
+      </c>
+      <c r="D168" t="n">
+        <v>0.09294723999999999</v>
+      </c>
+      <c r="E168" t="n">
+        <v>17165.65722116</v>
+      </c>
+      <c r="F168" t="n">
+        <v>78.82337616000001</v>
+      </c>
+      <c r="G168" t="n">
+        <v>791.1088643599999</v>
+      </c>
+      <c r="H168" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>0.00134944</v>
+      </c>
+      <c r="C169" t="n">
+        <v>0.16552516</v>
+      </c>
+      <c r="D169" t="n">
+        <v>0.12416864</v>
+      </c>
+      <c r="E169" t="n">
+        <v>17675.946029</v>
+      </c>
+      <c r="F169" t="n">
+        <v>127.39836384</v>
+      </c>
+      <c r="G169" t="n">
+        <v>292.15975136</v>
+      </c>
+      <c r="H169" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>0.006280839999999999</v>
+      </c>
+      <c r="C170" t="n">
+        <v>0.02630804000000001</v>
+      </c>
+      <c r="D170" t="n">
+        <v>0.032189</v>
+      </c>
+      <c r="E170" t="n">
+        <v>17488.857025</v>
+      </c>
+      <c r="F170" t="n">
+        <v>326.87925664</v>
+      </c>
+      <c r="G170" t="n">
+        <v>1374.68912064</v>
+      </c>
+      <c r="H170" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>0.009332640000000001</v>
+      </c>
+      <c r="C171" t="n">
+        <v>0.15475556</v>
+      </c>
+      <c r="D171" t="n">
+        <v>0.33674704</v>
+      </c>
+      <c r="E171" t="n">
+        <v>5893.988219239999</v>
+      </c>
+      <c r="F171" t="n">
+        <v>284.04416944</v>
+      </c>
+      <c r="G171" t="n">
+        <v>205.212788</v>
+      </c>
+      <c r="H171" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>0.00039716</v>
+      </c>
+      <c r="C172" t="n">
+        <v>0.01446116</v>
+      </c>
+      <c r="D172" t="n">
+        <v>0.001445640000000001</v>
+      </c>
+      <c r="E172" t="n">
+        <v>3985.103735560001</v>
+      </c>
+      <c r="F172" t="n">
+        <v>68.38873876</v>
+      </c>
+      <c r="G172" t="n">
+        <v>118.84285364</v>
+      </c>
+      <c r="H172" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>0.01735604</v>
+      </c>
+      <c r="C173" t="n">
+        <v>0.08691924000000001</v>
+      </c>
+      <c r="D173" t="n">
+        <v>0.34224724</v>
+      </c>
+      <c r="E173" t="n">
+        <v>10857.36151764</v>
+      </c>
+      <c r="F173" t="n">
+        <v>201.21814464</v>
+      </c>
+      <c r="G173" t="n">
+        <v>1283.31690596</v>
+      </c>
+      <c r="H173" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>0.011205</v>
+      </c>
+      <c r="C174" t="n">
+        <v>0.02211184000000001</v>
+      </c>
+      <c r="D174" t="n">
+        <v>0.07500576000000002</v>
+      </c>
+      <c r="E174" t="n">
+        <v>18859.62875136</v>
+      </c>
+      <c r="F174" t="n">
+        <v>78.55554275999999</v>
+      </c>
+      <c r="G174" t="n">
+        <v>575.2214880399999</v>
+      </c>
+      <c r="H174" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>0.00216224</v>
+      </c>
+      <c r="C175" t="n">
+        <v>0.07045316</v>
+      </c>
+      <c r="D175" t="n">
+        <v>0.04534964</v>
+      </c>
+      <c r="E175" t="n">
+        <v>8229.301606559999</v>
+      </c>
+      <c r="F175" t="n">
+        <v>246.71255764</v>
+      </c>
+      <c r="G175" t="n">
+        <v>197.0864934400001</v>
+      </c>
+      <c r="H175" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>0.00231636</v>
+      </c>
+      <c r="C176" t="n">
+        <v>0.144057</v>
+      </c>
+      <c r="D176" t="n">
+        <v>0.09135524</v>
+      </c>
+      <c r="E176" t="n">
+        <v>14928.524641</v>
+      </c>
+      <c r="F176" t="n">
+        <v>126.03544416</v>
+      </c>
+      <c r="G176" t="n">
+        <v>205.306469</v>
+      </c>
+      <c r="H176" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>0.008435560000000002</v>
+      </c>
+      <c r="C177" t="n">
+        <v>0.018009</v>
+      </c>
+      <c r="D177" t="n">
+        <v>0.03144464</v>
+      </c>
+      <c r="E177" t="n">
+        <v>19290.49455284</v>
+      </c>
+      <c r="F177" t="n">
+        <v>448.0043472400001</v>
+      </c>
+      <c r="G177" t="n">
+        <v>792.1126952400002</v>
+      </c>
+      <c r="H177" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>0.00466836</v>
+      </c>
+      <c r="C178" t="n">
+        <v>0.128285</v>
+      </c>
+      <c r="D178" t="n">
+        <v>0.3356408399999999</v>
+      </c>
+      <c r="E178" t="n">
+        <v>6409.972526440001</v>
+      </c>
+      <c r="F178" t="n">
+        <v>85.19540164</v>
+      </c>
+      <c r="G178" t="n">
+        <v>81.63061443999999</v>
+      </c>
+      <c r="H178" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>0.0007305600000000001</v>
+      </c>
+      <c r="C179" t="n">
+        <v>0.01634144</v>
+      </c>
+      <c r="D179" t="n">
+        <v>0.00138896</v>
+      </c>
+      <c r="E179" t="n">
+        <v>6729.425134439999</v>
+      </c>
+      <c r="F179" t="n">
+        <v>103.317477</v>
+      </c>
+      <c r="G179" t="n">
+        <v>101.04090464</v>
+      </c>
+      <c r="H179" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>0.007171240000000001</v>
+      </c>
+      <c r="C180" t="n">
+        <v>0.06248836</v>
+      </c>
+      <c r="D180" t="n">
+        <v>0.29982516</v>
+      </c>
+      <c r="E180" t="n">
+        <v>8497.844890439999</v>
+      </c>
+      <c r="F180" t="n">
+        <v>197.031645</v>
+      </c>
+      <c r="G180" t="n">
+        <v>110.73514544</v>
+      </c>
+      <c r="H180" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>0.00082304</v>
+      </c>
+      <c r="C181" t="n">
+        <v>0.02135536</v>
+      </c>
+      <c r="D181" t="n">
+        <v>0.04578176</v>
+      </c>
+      <c r="E181" t="n">
+        <v>14508.97323424</v>
+      </c>
+      <c r="F181" t="n">
+        <v>216.36707536</v>
+      </c>
+      <c r="G181" t="n">
+        <v>602.3624409600001</v>
+      </c>
+      <c r="H181" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>0.00248704</v>
+      </c>
+      <c r="C182" t="n">
+        <v>0.15103376</v>
+      </c>
+      <c r="D182" t="n">
+        <v>0.08099444</v>
+      </c>
+      <c r="E182" t="n">
+        <v>10656.85254944</v>
+      </c>
+      <c r="F182" t="n">
+        <v>218.5889774400001</v>
+      </c>
+      <c r="G182" t="n">
+        <v>154.436112</v>
+      </c>
+      <c r="H182" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>0.00204064</v>
+      </c>
+      <c r="C183" t="n">
+        <v>0.10176436</v>
+      </c>
+      <c r="D183" t="n">
+        <v>0.024736</v>
+      </c>
+      <c r="E183" t="n">
+        <v>18068.87655104</v>
+      </c>
+      <c r="F183" t="n">
+        <v>274.92436816</v>
+      </c>
+      <c r="G183" t="n">
+        <v>13.392536</v>
+      </c>
+      <c r="H183" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>0.00701556</v>
+      </c>
+      <c r="C184" t="n">
+        <v>0.01983716000000001</v>
+      </c>
+      <c r="D184" t="n">
+        <v>0.14619584</v>
+      </c>
+      <c r="E184" t="n">
+        <v>18972.615525</v>
+      </c>
+      <c r="F184" t="n">
+        <v>216.90418676</v>
+      </c>
+      <c r="G184" t="n">
+        <v>161.341544</v>
+      </c>
+      <c r="H184" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>0.005615999999999999</v>
+      </c>
+      <c r="C185" t="n">
+        <v>0.02605764</v>
+      </c>
+      <c r="D185" t="n">
+        <v>0.12703076</v>
+      </c>
+      <c r="E185" t="n">
+        <v>11512.489621</v>
+      </c>
+      <c r="F185" t="n">
+        <v>457.75913744</v>
+      </c>
+      <c r="G185" t="n">
+        <v>270.40061876</v>
+      </c>
+      <c r="H185" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>0.00214516</v>
+      </c>
+      <c r="C186" t="n">
+        <v>0.09818516000000001</v>
+      </c>
+      <c r="D186" t="n">
+        <v>0.02241824</v>
+      </c>
+      <c r="E186" t="n">
+        <v>11218.09959284</v>
+      </c>
+      <c r="F186" t="n">
+        <v>271.976964</v>
+      </c>
+      <c r="G186" t="n">
+        <v>217.248284</v>
+      </c>
+      <c r="H186" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>0.00278596</v>
+      </c>
+      <c r="C187" t="n">
+        <v>0.11424596</v>
+      </c>
+      <c r="D187" t="n">
+        <v>0.02180036</v>
+      </c>
+      <c r="E187" t="n">
+        <v>8228.882570560001</v>
+      </c>
+      <c r="F187" t="n">
+        <v>196.066048</v>
+      </c>
+      <c r="G187" t="n">
+        <v>49.79073504000001</v>
+      </c>
+      <c r="H187" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>0.00418816</v>
+      </c>
+      <c r="C188" t="n">
+        <v>0.01461764</v>
+      </c>
+      <c r="D188" t="n">
+        <v>0.14429156</v>
+      </c>
+      <c r="E188" t="n">
+        <v>14355.12076516</v>
+      </c>
+      <c r="F188" t="n">
+        <v>156.59840756</v>
+      </c>
+      <c r="G188" t="n">
+        <v>153.51831344</v>
+      </c>
+      <c r="H188" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>0.01746816</v>
+      </c>
+      <c r="C189" t="n">
+        <v>0.07878900000000001</v>
+      </c>
+      <c r="D189" t="n">
+        <v>0.27006176</v>
+      </c>
+      <c r="E189" t="n">
+        <v>9404.165640839999</v>
+      </c>
+      <c r="F189" t="n">
+        <v>463.9068827599999</v>
+      </c>
+      <c r="G189" t="n">
+        <v>214.17528384</v>
+      </c>
+      <c r="H189" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>0.00229056</v>
+      </c>
+      <c r="C190" t="n">
+        <v>0.013517</v>
+      </c>
+      <c r="D190" t="n">
+        <v>0.0008827600000000009</v>
+      </c>
+      <c r="E190" t="n">
+        <v>4884.17373056</v>
+      </c>
+      <c r="F190" t="n">
+        <v>68.28161956</v>
+      </c>
+      <c r="G190" t="n">
+        <v>7.83731984</v>
+      </c>
+      <c r="H190" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>0.00711364</v>
+      </c>
+      <c r="C191" t="n">
+        <v>0.24254436</v>
+      </c>
+      <c r="D191" t="n">
+        <v>0.13922324</v>
+      </c>
+      <c r="E191" t="n">
+        <v>12624.53658896</v>
+      </c>
+      <c r="F191" t="n">
+        <v>292.176665</v>
+      </c>
+      <c r="G191" t="n">
+        <v>58.92048416000001</v>
+      </c>
+      <c r="H191" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>0.00297844</v>
+      </c>
+      <c r="C192" t="n">
+        <v>0.01992644</v>
+      </c>
+      <c r="D192" t="n">
+        <v>0.006061439999999999</v>
+      </c>
+      <c r="E192" t="n">
+        <v>24724.27925776</v>
+      </c>
+      <c r="F192" t="n">
+        <v>408.699393</v>
+      </c>
+      <c r="G192" t="n">
+        <v>437.5962241599999</v>
+      </c>
+      <c r="H192" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>0.00990516</v>
+      </c>
+      <c r="C193" t="n">
+        <v>0.21102736</v>
+      </c>
+      <c r="D193" t="n">
+        <v>0.17108996</v>
+      </c>
+      <c r="E193" t="n">
+        <v>10083.35086784</v>
+      </c>
+      <c r="F193" t="n">
+        <v>474.25729124</v>
+      </c>
+      <c r="G193" t="n">
+        <v>218.89916964</v>
+      </c>
+      <c r="H193" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>0.0005003599999999999</v>
+      </c>
+      <c r="C194" t="n">
+        <v>0.006853160000000001</v>
+      </c>
+      <c r="D194" t="n">
+        <v>0.00102224</v>
+      </c>
+      <c r="E194" t="n">
+        <v>4389.696516999999</v>
+      </c>
+      <c r="F194" t="n">
+        <v>37.16052704</v>
+      </c>
+      <c r="G194" t="n">
+        <v>14.50754944</v>
+      </c>
+      <c r="H194" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>0.01596724</v>
+      </c>
+      <c r="C195" t="n">
+        <v>0.08541476000000001</v>
+      </c>
+      <c r="D195" t="n">
+        <v>0.34841956</v>
+      </c>
+      <c r="E195" t="n">
+        <v>8085.583509759999</v>
+      </c>
+      <c r="F195" t="n">
+        <v>265.73366</v>
+      </c>
+      <c r="G195" t="n">
+        <v>224.16868996</v>
+      </c>
+      <c r="H195" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>0.00404224</v>
+      </c>
+      <c r="C196" t="n">
+        <v>0.00865636</v>
+      </c>
+      <c r="D196" t="n">
+        <v>0.06766944</v>
+      </c>
+      <c r="E196" t="n">
+        <v>16121.10258496</v>
+      </c>
+      <c r="F196" t="n">
+        <v>627.70346624</v>
+      </c>
+      <c r="G196" t="n">
+        <v>860.770408</v>
+      </c>
+      <c r="H196" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>0.003637640000000001</v>
+      </c>
+      <c r="C197" t="n">
+        <v>0.17056784</v>
+      </c>
+      <c r="D197" t="n">
+        <v>0.04429984</v>
+      </c>
+      <c r="E197" t="n">
+        <v>10968.733189</v>
+      </c>
+      <c r="F197" t="n">
+        <v>209.76115364</v>
+      </c>
+      <c r="G197" t="n">
+        <v>279.93299104</v>
+      </c>
+      <c r="H197" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>0.0007752400000000001</v>
+      </c>
+      <c r="C198" t="n">
+        <v>0.04732243999999999</v>
+      </c>
+      <c r="D198" t="n">
+        <v>0.002589</v>
+      </c>
+      <c r="E198" t="n">
+        <v>6014.375048639999</v>
+      </c>
+      <c r="F198" t="n">
+        <v>22.47164596</v>
+      </c>
+      <c r="G198" t="n">
+        <v>27.61026724</v>
+      </c>
+      <c r="H198" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>0.00439136</v>
+      </c>
+      <c r="C199" t="n">
+        <v>0.03477744000000001</v>
+      </c>
+      <c r="D199" t="n">
+        <v>0.30258704</v>
+      </c>
+      <c r="E199" t="n">
+        <v>19485.47197044</v>
+      </c>
+      <c r="F199" t="n">
+        <v>149.38199616</v>
+      </c>
+      <c r="G199" t="n">
+        <v>204.27572596</v>
+      </c>
+      <c r="H199" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>0.00372244</v>
+      </c>
+      <c r="C200" t="n">
+        <v>0.09273300000000002</v>
+      </c>
+      <c r="D200" t="n">
+        <v>0.27188</v>
+      </c>
+      <c r="E200" t="n">
+        <v>10454.06269056</v>
+      </c>
+      <c r="F200" t="n">
+        <v>413.3068369600001</v>
+      </c>
+      <c r="G200" t="n">
+        <v>237.07155124</v>
+      </c>
+      <c r="H200" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>0.00160964</v>
+      </c>
+      <c r="C201" t="n">
+        <v>0.01866784</v>
+      </c>
+      <c r="D201" t="n">
+        <v>0.00137536</v>
+      </c>
+      <c r="E201" t="n">
+        <v>4888.91456864</v>
+      </c>
+      <c r="F201" t="n">
+        <v>115.19016756</v>
+      </c>
+      <c r="G201" t="n">
+        <v>44.38013924</v>
+      </c>
+      <c r="H201" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>0.002689</v>
+      </c>
+      <c r="C202" t="n">
+        <v>0.231905</v>
+      </c>
+      <c r="D202" t="n">
+        <v>0.07064004</v>
+      </c>
+      <c r="E202" t="n">
+        <v>7706.34369056</v>
+      </c>
+      <c r="F202" t="n">
+        <v>23.49340416</v>
+      </c>
+      <c r="G202" t="n">
+        <v>189.55176884</v>
+      </c>
+      <c r="H202" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>0.00164</v>
+      </c>
+      <c r="C203" t="n">
+        <v>0.01362464</v>
+      </c>
+      <c r="D203" t="n">
+        <v>0.03504304</v>
+      </c>
+      <c r="E203" t="n">
+        <v>31082.58818623999</v>
+      </c>
+      <c r="F203" t="n">
+        <v>130.495488</v>
+      </c>
+      <c r="G203" t="n">
+        <v>418.8727667599999</v>
+      </c>
+      <c r="H203" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>0.002496</v>
+      </c>
+      <c r="C204" t="n">
+        <v>0.17373536</v>
+      </c>
+      <c r="D204" t="n">
+        <v>0.05791636000000001</v>
+      </c>
+      <c r="E204" t="n">
+        <v>18282.36384016</v>
+      </c>
+      <c r="F204" t="n">
+        <v>84.29950676000003</v>
+      </c>
+      <c r="G204" t="n">
+        <v>374.03591536</v>
+      </c>
+      <c r="H204" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>0.007265000000000001</v>
+      </c>
+      <c r="C205" t="n">
+        <v>0.009273760000000002</v>
+      </c>
+      <c r="D205" t="n">
+        <v>0.022929</v>
+      </c>
+      <c r="E205" t="n">
+        <v>4169.83273396</v>
+      </c>
+      <c r="F205" t="n">
+        <v>742.6627211599999</v>
+      </c>
+      <c r="G205" t="n">
+        <v>154.41992736</v>
+      </c>
+      <c r="H205" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>0.00272244</v>
+      </c>
+      <c r="C206" t="n">
+        <v>0.005312360000000001</v>
+      </c>
+      <c r="D206" t="n">
+        <v>0.04875104</v>
+      </c>
+      <c r="E206" t="n">
+        <v>578.05226164</v>
+      </c>
+      <c r="F206" t="n">
+        <v>588.8982425599999</v>
+      </c>
+      <c r="G206" t="n">
+        <v>167.86380084</v>
+      </c>
+      <c r="H206" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>0.005593160000000001</v>
+      </c>
+      <c r="C207" t="n">
+        <v>0.04425376</v>
+      </c>
+      <c r="D207" t="n">
+        <v>0.06255024000000001</v>
+      </c>
+      <c r="E207" t="n">
+        <v>2402.49428704</v>
+      </c>
+      <c r="F207" t="n">
+        <v>475.71807856</v>
+      </c>
+      <c r="G207" t="n">
+        <v>171.725885</v>
+      </c>
+      <c r="H207" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>0.004048159999999999</v>
+      </c>
+      <c r="C208" t="n">
+        <v>0.020384</v>
+      </c>
+      <c r="D208" t="n">
+        <v>0.005848840000000004</v>
+      </c>
+      <c r="E208" t="n">
+        <v>5545.820196040001</v>
+      </c>
+      <c r="F208" t="n">
+        <v>164.00124356</v>
+      </c>
+      <c r="G208" t="n">
+        <v>185.89488436</v>
+      </c>
+      <c r="H208" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>0.00113076</v>
+      </c>
+      <c r="C209" t="n">
+        <v>0.02027104</v>
+      </c>
+      <c r="D209" t="n">
+        <v>0.004938760000000003</v>
+      </c>
+      <c r="E209" t="n">
+        <v>7866.27675376</v>
+      </c>
+      <c r="F209" t="n">
+        <v>68.49641604</v>
+      </c>
+      <c r="G209" t="n">
+        <v>19.101161</v>
+      </c>
+      <c r="H209" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>0.013713</v>
+      </c>
+      <c r="C210" t="n">
+        <v>0.04409024</v>
+      </c>
+      <c r="D210" t="n">
+        <v>0.07671955999999999</v>
+      </c>
+      <c r="E210" t="n">
+        <v>26515.412765</v>
+      </c>
+      <c r="F210" t="n">
+        <v>2319.62116</v>
+      </c>
+      <c r="G210" t="n">
+        <v>318.109988</v>
+      </c>
+      <c r="H210" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>0.00268464</v>
+      </c>
+      <c r="C211" t="n">
+        <v>0.002753</v>
+      </c>
+      <c r="D211" t="n">
+        <v>0.11265316</v>
+      </c>
+      <c r="E211" t="n">
+        <v>249.21062404</v>
+      </c>
+      <c r="F211" t="n">
+        <v>469.36584944</v>
+      </c>
+      <c r="G211" t="n">
+        <v>102.85082404</v>
+      </c>
+      <c r="H211" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>0.00193236</v>
+      </c>
+      <c r="C212" t="n">
+        <v>0.00436944</v>
+      </c>
+      <c r="D212" t="n">
+        <v>0.07281856000000002</v>
+      </c>
+      <c r="E212" t="n">
+        <v>4166.82465904</v>
+      </c>
+      <c r="F212" t="n">
+        <v>698.0204400399999</v>
+      </c>
+      <c r="G212" t="n">
+        <v>55.23899796</v>
+      </c>
+      <c r="H212" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>0.01200244</v>
+      </c>
+      <c r="C213" t="n">
+        <v>0.124872</v>
+      </c>
+      <c r="D213" t="n">
+        <v>0.05342096</v>
+      </c>
+      <c r="E213" t="n">
+        <v>18017.76824416</v>
+      </c>
+      <c r="F213" t="n">
+        <v>895.9122537600001</v>
+      </c>
+      <c r="G213" t="n">
+        <v>170.651381</v>
+      </c>
+      <c r="H213" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>0.00399344</v>
+      </c>
+      <c r="C214" t="n">
+        <v>0.13086544</v>
+      </c>
+      <c r="D214" t="n">
+        <v>0.17317744</v>
+      </c>
+      <c r="E214" t="n">
+        <v>3783.12034644</v>
+      </c>
+      <c r="F214" t="n">
+        <v>542.9916425600001</v>
+      </c>
+      <c r="G214" t="n">
+        <v>100.8475</v>
+      </c>
+      <c r="H214" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>0.00312384</v>
+      </c>
+      <c r="C215" t="n">
+        <v>0.003537000000000001</v>
+      </c>
+      <c r="D215" t="n">
+        <v>0.025192</v>
+      </c>
+      <c r="E215" t="n">
+        <v>511.3642195599999</v>
+      </c>
+      <c r="F215" t="n">
+        <v>1806.84324576</v>
+      </c>
+      <c r="G215" t="n">
+        <v>34.25287604</v>
+      </c>
+      <c r="H215" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>0.009076000000000001</v>
+      </c>
+      <c r="C216" t="n">
+        <v>0.007737000000000004</v>
+      </c>
+      <c r="D216" t="n">
+        <v>0.06742303999999999</v>
+      </c>
+      <c r="E216" t="n">
+        <v>6219.109257640001</v>
+      </c>
+      <c r="F216" t="n">
+        <v>1739.94420064</v>
+      </c>
+      <c r="G216" t="n">
+        <v>250.87521604</v>
+      </c>
+      <c r="H216" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>0.00695504</v>
+      </c>
+      <c r="C217" t="n">
+        <v>0.05505284000000001</v>
+      </c>
+      <c r="D217" t="n">
+        <v>0.037445</v>
+      </c>
+      <c r="E217" t="n">
+        <v>14876.32861764</v>
+      </c>
+      <c r="F217" t="n">
+        <v>340.54614036</v>
+      </c>
+      <c r="G217" t="n">
+        <v>147.69884516</v>
+      </c>
+      <c r="H217" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>0.00166976</v>
+      </c>
+      <c r="C218" t="n">
+        <v>0.11504896</v>
+      </c>
+      <c r="D218" t="n">
+        <v>0.07339856000000002</v>
+      </c>
+      <c r="E218" t="n">
+        <v>14227.388109</v>
+      </c>
+      <c r="F218" t="n">
+        <v>505.768264</v>
+      </c>
+      <c r="G218" t="n">
+        <v>171.62485296</v>
+      </c>
+      <c r="H218" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>0.00483684</v>
+      </c>
+      <c r="C219" t="n">
+        <v>0.007971840000000003</v>
+      </c>
+      <c r="D219" t="n">
+        <v>0.07791284</v>
+      </c>
+      <c r="E219" t="n">
+        <v>2913.00119044</v>
+      </c>
+      <c r="F219" t="n">
+        <v>760.4673730000001</v>
+      </c>
+      <c r="G219" t="n">
+        <v>74.18174144000001</v>
+      </c>
+      <c r="H219" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>0.00144836</v>
+      </c>
+      <c r="C220" t="n">
+        <v>0.00287844</v>
+      </c>
+      <c r="D220" t="n">
+        <v>0.05769396</v>
+      </c>
+      <c r="E220" t="n">
+        <v>963.22116944</v>
+      </c>
+      <c r="F220" t="n">
+        <v>1509.76235456</v>
+      </c>
+      <c r="G220" t="n">
+        <v>225.41787284</v>
+      </c>
+      <c r="H220" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>0.006862239999999999</v>
+      </c>
+      <c r="C221" t="n">
+        <v>0.12851044</v>
+      </c>
+      <c r="D221" t="n">
+        <v>0.04362644</v>
+      </c>
+      <c r="E221" t="n">
+        <v>7897.47174836</v>
+      </c>
+      <c r="F221" t="n">
+        <v>721.95239796</v>
+      </c>
+      <c r="G221" t="n">
+        <v>262.03150224</v>
+      </c>
+      <c r="H221" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>0.00576256</v>
+      </c>
+      <c r="C222" t="n">
+        <v>0.05814304</v>
+      </c>
+      <c r="D222" t="n">
+        <v>0.04472544</v>
+      </c>
+      <c r="E222" t="n">
+        <v>14772.666237</v>
+      </c>
+      <c r="F222" t="n">
+        <v>352.49036096</v>
+      </c>
+      <c r="G222" t="n">
+        <v>102.259113</v>
+      </c>
+      <c r="H222" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>0.005329759999999999</v>
+      </c>
+      <c r="C223" t="n">
+        <v>0.008208360000000001</v>
+      </c>
+      <c r="D223" t="n">
+        <v>0.025665</v>
+      </c>
+      <c r="E223" t="n">
+        <v>8930.30977856</v>
+      </c>
+      <c r="F223" t="n">
+        <v>1125.51667364</v>
+      </c>
+      <c r="G223" t="n">
+        <v>111.55291076</v>
+      </c>
+      <c r="H223" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>0.00270096</v>
+      </c>
+      <c r="C224" t="n">
+        <v>0.005204840000000003</v>
+      </c>
+      <c r="D224" t="n">
+        <v>0.07938563999999999</v>
+      </c>
+      <c r="E224" t="n">
+        <v>325.8232659599999</v>
+      </c>
+      <c r="F224" t="n">
+        <v>614.8745385599999</v>
+      </c>
+      <c r="G224" t="n">
+        <v>104.41705456</v>
+      </c>
+      <c r="H224" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>0.002620000000000001</v>
+      </c>
+      <c r="C225" t="n">
+        <v>0.19403876</v>
+      </c>
+      <c r="D225" t="n">
+        <v>0.134188</v>
+      </c>
+      <c r="E225" t="n">
+        <v>10401.458221</v>
+      </c>
+      <c r="F225" t="n">
+        <v>945.3370649999998</v>
+      </c>
+      <c r="G225" t="n">
+        <v>260.49950676</v>
+      </c>
+      <c r="H225" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>0.003904039999999999</v>
+      </c>
+      <c r="C226" t="n">
+        <v>0.007072040000000001</v>
+      </c>
+      <c r="D226" t="n">
+        <v>0.01030736</v>
+      </c>
+      <c r="E226" t="n">
+        <v>3170.36837076</v>
+      </c>
+      <c r="F226" t="n">
+        <v>201.76992</v>
+      </c>
+      <c r="G226" t="n">
+        <v>71.29745264</v>
+      </c>
+      <c r="H226" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>0.00180656</v>
+      </c>
+      <c r="C227" t="n">
+        <v>0.08370095999999999</v>
+      </c>
+      <c r="D227" t="n">
+        <v>0.07638704</v>
+      </c>
+      <c r="E227" t="n">
+        <v>16299.59166884</v>
+      </c>
+      <c r="F227" t="n">
+        <v>791.5021160000001</v>
+      </c>
+      <c r="G227" t="n">
+        <v>147.998573</v>
+      </c>
+      <c r="H227" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>0.00246736</v>
+      </c>
+      <c r="C228" t="n">
+        <v>0.001700999999999999</v>
+      </c>
+      <c r="D228" t="n">
+        <v>0.028173</v>
+      </c>
+      <c r="E228" t="n">
+        <v>375.30197556</v>
+      </c>
+      <c r="F228" t="n">
+        <v>1688.41242224</v>
+      </c>
+      <c r="G228" t="n">
+        <v>34.04823699999999</v>
+      </c>
+      <c r="H228" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>0.005503560000000001</v>
+      </c>
+      <c r="C229" t="n">
+        <v>0.005783240000000002</v>
+      </c>
+      <c r="D229" t="n">
+        <v>0.10611076</v>
+      </c>
+      <c r="E229" t="n">
+        <v>3908.83480516</v>
+      </c>
+      <c r="F229" t="n">
+        <v>980.65900356</v>
+      </c>
+      <c r="G229" t="n">
+        <v>32.95694516</v>
+      </c>
+      <c r="H229" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>0.00321364</v>
+      </c>
+      <c r="C230" t="n">
+        <v>0.09178900000000001</v>
+      </c>
+      <c r="D230" t="n">
+        <v>0.04403156</v>
+      </c>
+      <c r="E230" t="n">
+        <v>18056.392124</v>
+      </c>
+      <c r="F230" t="n">
+        <v>247.912229</v>
+      </c>
+      <c r="G230" t="n">
+        <v>157.924865</v>
+      </c>
+      <c r="H230" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>0.00966</v>
+      </c>
+      <c r="C231" t="n">
+        <v>0.08769236</v>
+      </c>
+      <c r="D231" t="n">
+        <v>0.07422484</v>
+      </c>
+      <c r="E231" t="n">
+        <v>7895.978241439999</v>
+      </c>
+      <c r="F231" t="n">
+        <v>916.3457201599998</v>
+      </c>
+      <c r="G231" t="n">
+        <v>76.76938799999999</v>
+      </c>
+      <c r="H231" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>0.003307560000000001</v>
+      </c>
+      <c r="C232" t="n">
+        <v>0.008319999999999999</v>
+      </c>
+      <c r="D232" t="n">
+        <v>0.01466976</v>
+      </c>
+      <c r="E232" t="n">
+        <v>6407.295368359999</v>
+      </c>
+      <c r="F232" t="n">
+        <v>1032.242305</v>
+      </c>
+      <c r="G232" t="n">
+        <v>34.86184276</v>
+      </c>
+      <c r="H232" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>0.003340360000000001</v>
+      </c>
+      <c r="C233" t="n">
+        <v>0.01598656</v>
+      </c>
+      <c r="D233" t="n">
+        <v>0.06537776000000001</v>
+      </c>
+      <c r="E233" t="n">
+        <v>11687.55944644</v>
+      </c>
+      <c r="F233" t="n">
+        <v>2612.501398440001</v>
+      </c>
+      <c r="G233" t="n">
+        <v>224.46164576</v>
+      </c>
+      <c r="H233" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>0.002952</v>
+      </c>
+      <c r="C234" t="n">
+        <v>0.009429440000000001</v>
+      </c>
+      <c r="D234" t="n">
+        <v>0.01132436</v>
+      </c>
+      <c r="E234" t="n">
+        <v>4997.915152</v>
+      </c>
+      <c r="F234" t="n">
+        <v>579.72439456</v>
+      </c>
+      <c r="G234" t="n">
+        <v>72.37133695999999</v>
+      </c>
+      <c r="H234" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>0.00352596</v>
+      </c>
+      <c r="C235" t="n">
+        <v>0.017245</v>
+      </c>
+      <c r="D235" t="n">
+        <v>0.03156</v>
+      </c>
+      <c r="E235" t="n">
+        <v>4148.247517</v>
+      </c>
+      <c r="F235" t="n">
+        <v>241.73129284</v>
+      </c>
+      <c r="G235" t="n">
+        <v>46.07167999999999</v>
+      </c>
+      <c r="H235" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>0.00707136</v>
+      </c>
+      <c r="C236" t="n">
+        <v>0.01314416</v>
+      </c>
+      <c r="D236" t="n">
+        <v>0.022076</v>
+      </c>
+      <c r="E236" t="n">
+        <v>5758.474025</v>
+      </c>
+      <c r="F236" t="n">
+        <v>577.3265753599999</v>
+      </c>
+      <c r="G236" t="n">
+        <v>52.56374576</v>
+      </c>
+      <c r="H236" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>0.00158544</v>
+      </c>
+      <c r="C237" t="n">
+        <v>0.01314836000000001</v>
+      </c>
+      <c r="D237" t="n">
+        <v>0.08104835999999999</v>
+      </c>
+      <c r="E237" t="n">
+        <v>4448.02869156</v>
+      </c>
+      <c r="F237" t="n">
+        <v>1655.38809456</v>
+      </c>
+      <c r="G237" t="n">
+        <v>367.04286416</v>
+      </c>
+      <c r="H237" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>0.00398816</v>
+      </c>
+      <c r="C238" t="n">
+        <v>0.09873024000000001</v>
+      </c>
+      <c r="D238" t="n">
+        <v>0.02567363999999999</v>
+      </c>
+      <c r="E238" t="n">
+        <v>10737.01892784</v>
+      </c>
+      <c r="F238" t="n">
+        <v>835.9959897599999</v>
+      </c>
+      <c r="G238" t="n">
+        <v>272.6689665600001</v>
+      </c>
+      <c r="H238" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>0.00343476</v>
+      </c>
+      <c r="C239" t="n">
+        <v>0.054589</v>
+      </c>
+      <c r="D239" t="n">
+        <v>0.05221935999999999</v>
+      </c>
+      <c r="E239" t="n">
+        <v>9335.83477684</v>
+      </c>
+      <c r="F239" t="n">
+        <v>216.045941</v>
+      </c>
+      <c r="G239" t="n">
+        <v>112.00232964</v>
+      </c>
+      <c r="H239" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>0.00553264</v>
+      </c>
+      <c r="C240" t="n">
+        <v>0.005757960000000003</v>
+      </c>
+      <c r="D240" t="n">
+        <v>0.01884884</v>
+      </c>
+      <c r="E240" t="n">
+        <v>7920.75214996</v>
+      </c>
+      <c r="F240" t="n">
+        <v>271.6479272399999</v>
+      </c>
+      <c r="G240" t="n">
+        <v>54.27720703999999</v>
+      </c>
+      <c r="H240" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>0.006656</v>
+      </c>
+      <c r="C241" t="n">
+        <v>0.01257024</v>
+      </c>
+      <c r="D241" t="n">
+        <v>0.01469904</v>
+      </c>
+      <c r="E241" t="n">
+        <v>1409.75763076</v>
+      </c>
+      <c r="F241" t="n">
+        <v>971.00437904</v>
+      </c>
+      <c r="G241" t="n">
+        <v>518.0719622399999</v>
+      </c>
+      <c r="H241" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>0.00116644</v>
+      </c>
+      <c r="C242" t="n">
+        <v>0.06363923999999999</v>
+      </c>
+      <c r="D242" t="n">
+        <v>0.01905296</v>
+      </c>
+      <c r="E242" t="n">
+        <v>5619.47068404</v>
+      </c>
+      <c r="F242" t="n">
+        <v>232.18977876</v>
+      </c>
+      <c r="G242" t="n">
+        <v>476.26506036</v>
+      </c>
+      <c r="H242" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>0.0008006400000000001</v>
+      </c>
+      <c r="C243" t="n">
+        <v>0.00450176</v>
+      </c>
+      <c r="D243" t="n">
+        <v>0.007777000000000003</v>
+      </c>
+      <c r="E243" t="n">
+        <v>147.35035636</v>
+      </c>
+      <c r="F243" t="n">
+        <v>118.15304336</v>
+      </c>
+      <c r="G243" t="n">
+        <v>7.67735536</v>
+      </c>
+      <c r="H243" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>0.004833</v>
+      </c>
+      <c r="C244" t="n">
+        <v>0.19750004</v>
+      </c>
+      <c r="D244" t="n">
+        <v>0.051532</v>
+      </c>
+      <c r="E244" t="n">
+        <v>17489.07883104</v>
+      </c>
+      <c r="F244" t="n">
+        <v>195.03175424</v>
+      </c>
+      <c r="G244" t="n">
+        <v>60.70054515999999</v>
+      </c>
+      <c r="H244" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>0.00479136</v>
+      </c>
+      <c r="C245" t="n">
+        <v>0.00351604</v>
+      </c>
+      <c r="D245" t="n">
+        <v>0.07523300000000001</v>
+      </c>
+      <c r="E245" t="n">
+        <v>157.90049236</v>
+      </c>
+      <c r="F245" t="n">
+        <v>955.8590054399999</v>
+      </c>
+      <c r="G245" t="n">
+        <v>72.10099443999999</v>
+      </c>
+      <c r="H245" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>0.004480960000000001</v>
+      </c>
+      <c r="C246" t="n">
+        <v>0.046041</v>
+      </c>
+      <c r="D246" t="n">
+        <v>0.042568</v>
+      </c>
+      <c r="E246" t="n">
+        <v>6444.314804959998</v>
+      </c>
+      <c r="F246" t="n">
+        <v>1043.76837876</v>
+      </c>
+      <c r="G246" t="n">
+        <v>45.46663876</v>
+      </c>
+      <c r="H246" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>0.00213076</v>
+      </c>
+      <c r="C247" t="n">
+        <v>0.003592</v>
+      </c>
+      <c r="D247" t="n">
+        <v>0.01079556</v>
+      </c>
+      <c r="E247" t="n">
+        <v>3761.060497439999</v>
+      </c>
+      <c r="F247" t="n">
+        <v>252.97797296</v>
+      </c>
+      <c r="G247" t="n">
+        <v>26.60783104</v>
+      </c>
+      <c r="H247" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
+        <v>0.005670760000000001</v>
+      </c>
+      <c r="C248" t="n">
+        <v>0.178997</v>
+      </c>
+      <c r="D248" t="n">
+        <v>0.08123700000000002</v>
+      </c>
+      <c r="E248" t="n">
+        <v>6424.13921924</v>
+      </c>
+      <c r="F248" t="n">
+        <v>520.8546033599999</v>
+      </c>
+      <c r="G248" t="n">
+        <v>69.68907135999999</v>
+      </c>
+      <c r="H248" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="n">
+        <v>0.00316544</v>
+      </c>
+      <c r="C249" t="n">
+        <v>0.003897000000000002</v>
+      </c>
+      <c r="D249" t="n">
+        <v>0.05642099999999999</v>
+      </c>
+      <c r="E249" t="n">
+        <v>405.62520224</v>
+      </c>
+      <c r="F249" t="n">
+        <v>634.89856964</v>
+      </c>
+      <c r="G249" t="n">
+        <v>94.31639056</v>
+      </c>
+      <c r="H249" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="n">
+        <v>0.00272544</v>
+      </c>
+      <c r="C250" t="n">
+        <v>0.21349156</v>
+      </c>
+      <c r="D250" t="n">
+        <v>0.16846</v>
+      </c>
+      <c r="E250" t="n">
+        <v>11332.91099204</v>
+      </c>
+      <c r="F250" t="n">
+        <v>370.4768529999999</v>
+      </c>
+      <c r="G250" t="n">
+        <v>158.67066736</v>
+      </c>
+      <c r="H250" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="n">
+        <v>0.003948040000000001</v>
+      </c>
+      <c r="C251" t="n">
+        <v>0.01258804</v>
+      </c>
+      <c r="D251" t="n">
+        <v>0.01078196</v>
+      </c>
+      <c r="E251" t="n">
+        <v>695.08518624</v>
+      </c>
+      <c r="F251" t="n">
+        <v>183.80506564</v>
+      </c>
+      <c r="G251" t="n">
+        <v>27.81222916</v>
+      </c>
+      <c r="H251" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="n">
+        <v>0.002097</v>
+      </c>
+      <c r="C252" t="n">
+        <v>0.225001</v>
+      </c>
+      <c r="D252" t="n">
+        <v>0.17508</v>
+      </c>
+      <c r="E252" t="n">
+        <v>13805.36332944</v>
+      </c>
+      <c r="F252" t="n">
+        <v>248.545025</v>
+      </c>
+      <c r="G252" t="n">
+        <v>203.2644209599999</v>
+      </c>
+      <c r="H252" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="n">
+        <v>0.00619316</v>
+      </c>
+      <c r="C253" t="n">
+        <v>0.02317236</v>
+      </c>
+      <c r="D253" t="n">
+        <v>0.07750099999999999</v>
+      </c>
+      <c r="E253" t="n">
+        <v>3744.86726816</v>
+      </c>
+      <c r="F253" t="n">
+        <v>1007.34002356</v>
+      </c>
+      <c r="G253" t="n">
+        <v>150.95760784</v>
+      </c>
+      <c r="H253" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="n">
+        <v>0.00151844</v>
+      </c>
+      <c r="C254" t="n">
+        <v>0.006791360000000003</v>
+      </c>
+      <c r="D254" t="n">
+        <v>0.07185999999999999</v>
+      </c>
+      <c r="E254" t="n">
+        <v>5603.26991664</v>
+      </c>
+      <c r="F254" t="n">
+        <v>1749.94062756</v>
+      </c>
+      <c r="G254" t="n">
+        <v>720.24654144</v>
+      </c>
+      <c r="H254" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="n">
+        <v>0.003474240000000001</v>
+      </c>
+      <c r="C255" t="n">
+        <v>0.03674756000000001</v>
+      </c>
+      <c r="D255" t="n">
+        <v>0.018552</v>
+      </c>
+      <c r="E255" t="n">
+        <v>6806.34989296</v>
+      </c>
+      <c r="F255" t="n">
+        <v>638.10953104</v>
+      </c>
+      <c r="G255" t="n">
+        <v>212.85118176</v>
+      </c>
+      <c r="H255" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="n">
+        <v>0.00362484</v>
+      </c>
+      <c r="C256" t="n">
+        <v>0.01108</v>
+      </c>
+      <c r="D256" t="n">
+        <v>0.01602335999999999</v>
+      </c>
+      <c r="E256" t="n">
+        <v>606.50668224</v>
+      </c>
+      <c r="F256" t="n">
+        <v>367.33069636</v>
+      </c>
+      <c r="G256" t="n">
+        <v>56.60553476000001</v>
+      </c>
+      <c r="H256" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="n">
+        <v>0.00384896</v>
+      </c>
+      <c r="C257" t="n">
+        <v>0.14868436</v>
+      </c>
+      <c r="D257" t="n">
+        <v>0.09283344000000002</v>
+      </c>
+      <c r="E257" t="n">
+        <v>14961.50365744</v>
+      </c>
+      <c r="F257" t="n">
+        <v>404.31057344</v>
+      </c>
+      <c r="G257" t="n">
+        <v>71.68503935999999</v>
+      </c>
+      <c r="H257" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="n">
+        <v>0.005956999999999999</v>
+      </c>
+      <c r="C258" t="n">
+        <v>0.008900840000000004</v>
+      </c>
+      <c r="D258" t="n">
+        <v>0.07204735999999999</v>
+      </c>
+      <c r="E258" t="n">
+        <v>285.1942627600001</v>
+      </c>
+      <c r="F258" t="n">
+        <v>646.8706697599999</v>
+      </c>
+      <c r="G258" t="n">
+        <v>84.48622256000003</v>
+      </c>
+      <c r="H258" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="n">
+        <v>0.004527360000000001</v>
+      </c>
+      <c r="C259" t="n">
+        <v>0.1865606400000001</v>
+      </c>
+      <c r="D259" t="n">
+        <v>0.14631956</v>
+      </c>
+      <c r="E259" t="n">
+        <v>4688.678664000001</v>
+      </c>
+      <c r="F259" t="n">
+        <v>283.94131376</v>
+      </c>
+      <c r="G259" t="n">
+        <v>252.23028484</v>
+      </c>
+      <c r="H259" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="n">
+        <v>0.006333</v>
+      </c>
+      <c r="C260" t="n">
+        <v>0.01134464</v>
+      </c>
+      <c r="D260" t="n">
+        <v>0.01359523999999999</v>
+      </c>
+      <c r="E260" t="n">
+        <v>412.90612016</v>
+      </c>
+      <c r="F260" t="n">
+        <v>339.8959330000001</v>
+      </c>
+      <c r="G260" t="n">
+        <v>15.48934276</v>
+      </c>
+      <c r="H260" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="n">
+        <v>0.00285856</v>
+      </c>
+      <c r="C261" t="n">
+        <v>0.10287284</v>
+      </c>
+      <c r="D261" t="n">
+        <v>0.06558575999999999</v>
+      </c>
+      <c r="E261" t="n">
+        <v>14578.30515504</v>
+      </c>
+      <c r="F261" t="n">
+        <v>249.14784416</v>
+      </c>
+      <c r="G261" t="n">
+        <v>24.86925716</v>
+      </c>
+      <c r="H261" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="n">
+        <v>0.007358760000000001</v>
+      </c>
+      <c r="C262" t="n">
+        <v>0.01307716</v>
+      </c>
+      <c r="D262" t="n">
+        <v>0.05879715999999999</v>
+      </c>
+      <c r="E262" t="n">
+        <v>4719.33728416</v>
+      </c>
+      <c r="F262" t="n">
+        <v>688.9416984400002</v>
+      </c>
+      <c r="G262" t="n">
+        <v>23.50415856</v>
+      </c>
+      <c r="H262" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="n">
+        <v>0.005556999999999999</v>
+      </c>
+      <c r="C263" t="n">
+        <v>0.007304640000000004</v>
+      </c>
+      <c r="D263" t="n">
+        <v>0.054489</v>
+      </c>
+      <c r="E263" t="n">
+        <v>574.28062356</v>
+      </c>
+      <c r="F263" t="n">
+        <v>562.8751928400001</v>
+      </c>
+      <c r="G263" t="n">
+        <v>96.955376</v>
+      </c>
+      <c r="H263" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="n">
+        <v>0.006374240000000001</v>
+      </c>
+      <c r="C264" t="n">
+        <v>0.07340976</v>
+      </c>
+      <c r="D264" t="n">
+        <v>0.052881</v>
+      </c>
+      <c r="E264" t="n">
+        <v>10884.39627604</v>
+      </c>
+      <c r="F264" t="n">
+        <v>724.3815755599999</v>
+      </c>
+      <c r="G264" t="n">
+        <v>74.03745956</v>
+      </c>
+      <c r="H264" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="n">
+        <v>0.008416360000000001</v>
+      </c>
+      <c r="C265" t="n">
+        <v>0.01990244</v>
+      </c>
+      <c r="D265" t="n">
+        <v>0.01998</v>
+      </c>
+      <c r="E265" t="n">
+        <v>1394.695381</v>
+      </c>
+      <c r="F265" t="n">
+        <v>470.55090304</v>
+      </c>
+      <c r="G265" t="n">
+        <v>67.48235824</v>
+      </c>
+      <c r="H265" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="n">
+        <v>0.00191476</v>
+      </c>
+      <c r="C266" t="n">
+        <v>0.14018816</v>
+      </c>
+      <c r="D266" t="n">
+        <v>0.08836400000000001</v>
+      </c>
+      <c r="E266" t="n">
+        <v>3432.86754224</v>
+      </c>
+      <c r="F266" t="n">
+        <v>241.60058864</v>
+      </c>
+      <c r="G266" t="n">
+        <v>71.72649716000001</v>
+      </c>
+      <c r="H266" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="n">
+        <v>0.00287316</v>
+      </c>
+      <c r="C267" t="n">
+        <v>0.005120840000000001</v>
+      </c>
+      <c r="D267" t="n">
+        <v>0.02259923999999999</v>
+      </c>
+      <c r="E267" t="n">
+        <v>388.4210774399999</v>
+      </c>
+      <c r="F267" t="n">
+        <v>2186.34647456</v>
+      </c>
+      <c r="G267" t="n">
+        <v>83.402441</v>
+      </c>
+      <c r="H267" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="n">
+        <v>0.00358</v>
+      </c>
+      <c r="C268" t="n">
+        <v>0.14169936</v>
+      </c>
+      <c r="D268" t="n">
+        <v>0.12726036</v>
+      </c>
+      <c r="E268" t="n">
+        <v>13240.23619076</v>
+      </c>
+      <c r="F268" t="n">
+        <v>1778.54684644</v>
+      </c>
+      <c r="G268" t="n">
+        <v>292.86657664</v>
+      </c>
+      <c r="H268" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="n">
+        <v>0.00479924</v>
+      </c>
+      <c r="C269" t="n">
+        <v>0.005444839999999999</v>
+      </c>
+      <c r="D269" t="n">
+        <v>0.009257639999999996</v>
+      </c>
+      <c r="E269" t="n">
+        <v>1585.88605264</v>
+      </c>
+      <c r="F269" t="n">
+        <v>258.71089904</v>
+      </c>
+      <c r="G269" t="n">
+        <v>73.07239199999999</v>
+      </c>
+      <c r="H269" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="n">
+        <v>0.00177956</v>
+      </c>
+      <c r="C270" t="n">
+        <v>0.17114224</v>
+      </c>
+      <c r="D270" t="n">
+        <v>0.12828964</v>
+      </c>
+      <c r="E270" t="n">
+        <v>4026.21303796</v>
+      </c>
+      <c r="F270" t="n">
+        <v>264.64620576</v>
+      </c>
+      <c r="G270" t="n">
+        <v>22.20006816</v>
+      </c>
+      <c r="H270" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="n">
+        <v>0.004969640000000001</v>
+      </c>
+      <c r="C271" t="n">
+        <v>0.006458240000000001</v>
+      </c>
+      <c r="D271" t="n">
+        <v>0.01920884</v>
+      </c>
+      <c r="E271" t="n">
+        <v>1165.95121604</v>
+      </c>
+      <c r="F271" t="n">
+        <v>1406.77527296</v>
+      </c>
+      <c r="G271" t="n">
+        <v>127.98160336</v>
+      </c>
+      <c r="H271" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="n">
+        <v>0.002648</v>
+      </c>
+      <c r="C272" t="n">
+        <v>0.09581456000000001</v>
+      </c>
+      <c r="D272" t="n">
+        <v>0.13077264</v>
+      </c>
+      <c r="E272" t="n">
+        <v>10480.184981</v>
+      </c>
+      <c r="F272" t="n">
+        <v>1367.75245216</v>
+      </c>
+      <c r="G272" t="n">
+        <v>406.54924384</v>
+      </c>
+      <c r="H272" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="n">
+        <v>0.00649296</v>
+      </c>
+      <c r="C273" t="n">
+        <v>0.010512</v>
+      </c>
+      <c r="D273" t="n">
+        <v>0.01337396</v>
+      </c>
+      <c r="E273" t="n">
+        <v>3028.88883024</v>
+      </c>
+      <c r="F273" t="n">
+        <v>253.99258416</v>
+      </c>
+      <c r="G273" t="n">
+        <v>69.56998400000001</v>
+      </c>
+      <c r="H273" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="n">
+        <v>0.004204360000000001</v>
+      </c>
+      <c r="C274" t="n">
+        <v>0.12864704</v>
+      </c>
+      <c r="D274" t="n">
+        <v>0.07350884000000001</v>
+      </c>
+      <c r="E274" t="n">
+        <v>2147.67078436</v>
+      </c>
+      <c r="F274" t="n">
+        <v>693.7449091599999</v>
+      </c>
+      <c r="G274" t="n">
+        <v>18.16300836</v>
+      </c>
+      <c r="H274" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="n">
+        <v>0.00150676</v>
+      </c>
+      <c r="C275" t="n">
+        <v>0.00718196</v>
+      </c>
+      <c r="D275" t="n">
+        <v>0.02020944</v>
+      </c>
+      <c r="E275" t="n">
+        <v>1074.64096976</v>
+      </c>
+      <c r="F275" t="n">
+        <v>1200.94459076</v>
+      </c>
+      <c r="G275" t="n">
+        <v>234.84844436</v>
+      </c>
+      <c r="H275" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="n">
+        <v>0.005343039999999999</v>
+      </c>
+      <c r="C276" t="n">
+        <v>0.184709</v>
+      </c>
+      <c r="D276" t="n">
+        <v>0.20115924</v>
+      </c>
+      <c r="E276" t="n">
+        <v>9196.74881076</v>
+      </c>
+      <c r="F276" t="n">
+        <v>1902.938801</v>
+      </c>
+      <c r="G276" t="n">
+        <v>320.2253552399999</v>
+      </c>
+      <c r="H276" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="n">
+        <v>0.008177159999999999</v>
+      </c>
+      <c r="C277" t="n">
+        <v>0.012945</v>
+      </c>
+      <c r="D277" t="n">
+        <v>0.01317936</v>
+      </c>
+      <c r="E277" t="n">
+        <v>751.5448288399999</v>
+      </c>
+      <c r="F277" t="n">
+        <v>354.49884164</v>
+      </c>
+      <c r="G277" t="n">
+        <v>71.20117024</v>
+      </c>
+      <c r="H277" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="n">
+        <v>0.002617</v>
+      </c>
+      <c r="C278" t="n">
+        <v>0.17017264</v>
+      </c>
+      <c r="D278" t="n">
+        <v>0.103081</v>
+      </c>
+      <c r="E278" t="n">
+        <v>13805.04025264</v>
+      </c>
+      <c r="F278" t="n">
+        <v>329.11666884</v>
+      </c>
+      <c r="G278" t="n">
+        <v>290.50266256</v>
+      </c>
+      <c r="H278" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="n">
+        <v>0.00642516</v>
+      </c>
+      <c r="C279" t="n">
+        <v>0.007553440000000003</v>
+      </c>
+      <c r="D279" t="n">
+        <v>0.04689556</v>
+      </c>
+      <c r="E279" t="n">
+        <v>377.4166830400001</v>
+      </c>
+      <c r="F279" t="n">
+        <v>825.6241502399998</v>
+      </c>
+      <c r="G279" t="n">
+        <v>34.42160564</v>
+      </c>
+      <c r="H279" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" t="n">
+        <v>0.0029</v>
+      </c>
+      <c r="C280" t="n">
+        <v>0.00604384</v>
+      </c>
+      <c r="D280" t="n">
+        <v>0.025989</v>
+      </c>
+      <c r="E280" t="n">
+        <v>1193.15849844</v>
+      </c>
+      <c r="F280" t="n">
+        <v>1279.55612244</v>
+      </c>
+      <c r="G280" t="n">
+        <v>195.87666804</v>
+      </c>
+      <c r="H280" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B281" t="n">
+        <v>0.01009024</v>
+      </c>
+      <c r="C281" t="n">
+        <v>0.08105956</v>
+      </c>
+      <c r="D281" t="n">
+        <v>0.01043136</v>
+      </c>
+      <c r="E281" t="n">
+        <v>8204.652294559999</v>
+      </c>
+      <c r="F281" t="n">
+        <v>1434.19128304</v>
+      </c>
+      <c r="G281" t="n">
+        <v>136.70994324</v>
+      </c>
+      <c r="H281" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B282" t="n">
+        <v>0.00359984</v>
+      </c>
+      <c r="C282" t="n">
+        <v>0.04073456</v>
+      </c>
+      <c r="D282" t="n">
+        <v>0.01953903999999999</v>
+      </c>
+      <c r="E282" t="n">
+        <v>11266.05555456</v>
+      </c>
+      <c r="F282" t="n">
+        <v>169.36896436</v>
+      </c>
+      <c r="G282" t="n">
+        <v>39.92569716</v>
+      </c>
+      <c r="H282" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B283" t="n">
+        <v>0.00308144</v>
+      </c>
+      <c r="C283" t="n">
+        <v>0.01334464</v>
+      </c>
+      <c r="D283" t="n">
+        <v>0.03570384</v>
+      </c>
+      <c r="E283" t="n">
+        <v>8525.34994496</v>
+      </c>
+      <c r="F283" t="n">
+        <v>659.6173697600002</v>
+      </c>
+      <c r="G283" t="n">
+        <v>10.21936784</v>
+      </c>
+      <c r="H283" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B284" t="n">
+        <v>0.005458760000000002</v>
+      </c>
+      <c r="C284" t="n">
+        <v>0.01156944</v>
+      </c>
+      <c r="D284" t="n">
+        <v>0.06350544</v>
+      </c>
+      <c r="E284" t="n">
+        <v>194.33702</v>
+      </c>
+      <c r="F284" t="n">
+        <v>551.75226244</v>
+      </c>
+      <c r="G284" t="n">
+        <v>130.47174644</v>
+      </c>
+      <c r="H284" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B285" t="n">
+        <v>0.002973</v>
+      </c>
+      <c r="C285" t="n">
+        <v>0.10993716</v>
+      </c>
+      <c r="D285" t="n">
+        <v>0.081777</v>
+      </c>
+      <c r="E285" t="n">
+        <v>3217.90144336</v>
+      </c>
+      <c r="F285" t="n">
+        <v>888.2253290000001</v>
+      </c>
+      <c r="G285" t="n">
+        <v>164.95686864</v>
+      </c>
+      <c r="H285" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="B286" t="n">
+        <v>0.006878560000000001</v>
+      </c>
+      <c r="C286" t="n">
+        <v>0.008298759999999999</v>
+      </c>
+      <c r="D286" t="n">
+        <v>0.01638975999999999</v>
+      </c>
+      <c r="E286" t="n">
+        <v>4920.65349056</v>
+      </c>
+      <c r="F286" t="n">
+        <v>302.56877584</v>
+      </c>
+      <c r="G286" t="n">
+        <v>35.82175184</v>
+      </c>
+      <c r="H286" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="B287" t="n">
+        <v>0.001821</v>
+      </c>
+      <c r="C287" t="n">
+        <v>0.04245636000000001</v>
+      </c>
+      <c r="D287" t="n">
+        <v>0.05369695999999999</v>
+      </c>
+      <c r="E287" t="n">
+        <v>9773.85606916</v>
+      </c>
+      <c r="F287" t="n">
+        <v>547.970868</v>
+      </c>
+      <c r="G287" t="n">
+        <v>47.46084883999999</v>
+      </c>
+      <c r="H287" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="B288" t="n">
+        <v>0.00173056</v>
+      </c>
+      <c r="C288" t="n">
+        <v>0.009746560000000001</v>
+      </c>
+      <c r="D288" t="n">
+        <v>0.05421024</v>
+      </c>
+      <c r="E288" t="n">
+        <v>211.24100884</v>
+      </c>
+      <c r="F288" t="n">
+        <v>489.88414404</v>
+      </c>
+      <c r="G288" t="n">
+        <v>193.49827264</v>
+      </c>
+      <c r="H288" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="B289" t="n">
+        <v>0.00368036</v>
+      </c>
+      <c r="C289" t="n">
+        <v>0.17843316</v>
+      </c>
+      <c r="D289" t="n">
+        <v>0.12381456</v>
+      </c>
+      <c r="E289" t="n">
+        <v>3544.252785</v>
+      </c>
+      <c r="F289" t="n">
+        <v>987.789024</v>
+      </c>
+      <c r="G289" t="n">
+        <v>236.44308016</v>
+      </c>
+      <c r="H289" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="B290" t="n">
+        <v>0.01145216</v>
+      </c>
+      <c r="C290" t="n">
+        <v>0.017117</v>
+      </c>
+      <c r="D290" t="n">
+        <v>0.01814884</v>
+      </c>
+      <c r="E290" t="n">
+        <v>797.46177076</v>
+      </c>
+      <c r="F290" t="n">
+        <v>464.01445616</v>
+      </c>
+      <c r="G290" t="n">
+        <v>73.516796</v>
+      </c>
+      <c r="H290" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="B291" t="n">
+        <v>0.0003976399999999998</v>
+      </c>
+      <c r="C291" t="n">
+        <v>0.0006424400000000001</v>
+      </c>
+      <c r="D291" t="n">
+        <v>0.0003446400000000007</v>
+      </c>
+      <c r="E291" t="n">
+        <v>23.81641456</v>
+      </c>
+      <c r="F291" t="n">
+        <v>19.18259936</v>
+      </c>
+      <c r="G291" t="n">
+        <v>3.781448999999999</v>
+      </c>
+      <c r="H291" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="B292" t="n">
+        <v>0.00081904</v>
+      </c>
+      <c r="C292" t="n">
+        <v>0.00105504</v>
+      </c>
+      <c r="D292" t="n">
+        <v>0.01013764</v>
+      </c>
+      <c r="E292" t="n">
+        <v>114.36900356</v>
+      </c>
+      <c r="F292" t="n">
+        <v>73.12081044</v>
+      </c>
+      <c r="G292" t="n">
+        <v>14.771533</v>
+      </c>
+      <c r="H292" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="B293" t="n">
+        <v>0.006264</v>
+      </c>
+      <c r="C293" t="n">
+        <v>0.005669</v>
+      </c>
+      <c r="D293" t="n">
+        <v>0.019425</v>
+      </c>
+      <c r="E293" t="n">
+        <v>302.27986724</v>
+      </c>
+      <c r="F293" t="n">
+        <v>492.85163604</v>
+      </c>
+      <c r="G293" t="n">
+        <v>34.34419824</v>
+      </c>
+      <c r="H293" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="B294" t="n">
+        <v>0.00449364</v>
+      </c>
+      <c r="C294" t="n">
+        <v>0.007156040000000002</v>
+      </c>
+      <c r="D294" t="n">
+        <v>0.06331264</v>
+      </c>
+      <c r="E294" t="n">
+        <v>256.68443764</v>
+      </c>
+      <c r="F294" t="n">
+        <v>673.20623024</v>
+      </c>
+      <c r="G294" t="n">
+        <v>133.26252</v>
+      </c>
+      <c r="H294" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="n">
+        <v>293</v>
+      </c>
+      <c r="B295" t="n">
+        <v>0.00135824</v>
+      </c>
+      <c r="C295" t="n">
+        <v>0.00135856</v>
+      </c>
+      <c r="D295" t="n">
+        <v>0.01617136000000001</v>
+      </c>
+      <c r="E295" t="n">
+        <v>34.874188</v>
+      </c>
+      <c r="F295" t="n">
+        <v>56.02611556</v>
+      </c>
+      <c r="G295" t="n">
+        <v>11.08674</v>
+      </c>
+      <c r="H295" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
+        <v>294</v>
+      </c>
+      <c r="B296" t="n">
+        <v>0.00376096</v>
+      </c>
+      <c r="C296" t="n">
+        <v>0.00289716</v>
+      </c>
+      <c r="D296" t="n">
+        <v>0.03715075999999999</v>
+      </c>
+      <c r="E296" t="n">
+        <v>65.96372916000001</v>
+      </c>
+      <c r="F296" t="n">
+        <v>286.9344350399999</v>
+      </c>
+      <c r="G296" t="n">
+        <v>15.45898</v>
+      </c>
+      <c r="H296" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="n">
+        <v>295</v>
+      </c>
+      <c r="B297" t="n">
+        <v>0.005794440000000001</v>
+      </c>
+      <c r="C297" t="n">
+        <v>0.003801000000000001</v>
+      </c>
+      <c r="D297" t="n">
+        <v>0.03053283999999999</v>
+      </c>
+      <c r="E297" t="n">
+        <v>67.78655684</v>
+      </c>
+      <c r="F297" t="n">
+        <v>745.1756968399999</v>
+      </c>
+      <c r="G297" t="n">
+        <v>122.22663236</v>
+      </c>
+      <c r="H297" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="n">
+        <v>296</v>
+      </c>
+      <c r="B298" t="n">
+        <v>0.0004955599999999999</v>
+      </c>
+      <c r="C298" t="n">
+        <v>0.00153104</v>
+      </c>
+      <c r="D298" t="n">
+        <v>0.01171316</v>
+      </c>
+      <c r="E298" t="n">
+        <v>32.51857204</v>
+      </c>
+      <c r="F298" t="n">
+        <v>250.778625</v>
+      </c>
+      <c r="G298" t="n">
+        <v>18.79665424</v>
+      </c>
+      <c r="H298" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n">
+        <v>297</v>
+      </c>
+      <c r="B299" t="n">
+        <v>0.00179024</v>
+      </c>
+      <c r="C299" t="n">
+        <v>0.001144</v>
+      </c>
+      <c r="D299" t="n">
+        <v>0.03479984000000001</v>
+      </c>
+      <c r="E299" t="n">
+        <v>54.08222004</v>
+      </c>
+      <c r="F299" t="n">
+        <v>170.8468240399999</v>
+      </c>
+      <c r="G299" t="n">
+        <v>7.93959444</v>
+      </c>
+      <c r="H299" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="n">
+        <v>298</v>
+      </c>
+      <c r="B300" t="n">
+        <v>0.004471039999999999</v>
+      </c>
+      <c r="C300" t="n">
+        <v>0.007022759999999998</v>
+      </c>
+      <c r="D300" t="n">
+        <v>0.06897776</v>
+      </c>
+      <c r="E300" t="n">
+        <v>41.28339024</v>
+      </c>
+      <c r="F300" t="n">
+        <v>215.94385344</v>
+      </c>
+      <c r="G300" t="n">
+        <v>63.39852035999999</v>
+      </c>
+      <c r="H300" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="n">
+        <v>299</v>
+      </c>
+      <c r="B301" t="n">
+        <v>0.00107684</v>
+      </c>
+      <c r="C301" t="n">
+        <v>0.004977000000000001</v>
+      </c>
+      <c r="D301" t="n">
+        <v>0.036708</v>
+      </c>
+      <c r="E301" t="n">
+        <v>107.57275984</v>
+      </c>
+      <c r="F301" t="n">
+        <v>129.00438976</v>
+      </c>
+      <c r="G301" t="n">
+        <v>15.11608404</v>
+      </c>
+      <c r="H301" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="B302" t="n">
+        <v>0.0001785599999999999</v>
+      </c>
+      <c r="C302" t="n">
+        <v>0.0004438400000000001</v>
+      </c>
+      <c r="D302" t="n">
+        <v>0.008070439999999996</v>
+      </c>
+      <c r="E302" t="n">
+        <v>17.91198196</v>
+      </c>
+      <c r="F302" t="n">
+        <v>91.632909</v>
+      </c>
+      <c r="G302" t="n">
+        <v>6.756720000000001</v>
+      </c>
+      <c r="H302" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="B303" t="n">
+        <v>0.00758996</v>
+      </c>
+      <c r="C303" t="n">
+        <v>0.00509776</v>
+      </c>
+      <c r="D303" t="n">
+        <v>0.02075104000000001</v>
+      </c>
+      <c r="E303" t="n">
+        <v>136.554273</v>
+      </c>
+      <c r="F303" t="n">
+        <v>520.0858518400001</v>
+      </c>
+      <c r="G303" t="n">
+        <v>37.01358256</v>
+      </c>
+      <c r="H303" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="n">
+        <v>302</v>
+      </c>
+      <c r="B304" t="n">
+        <v>0.00487376</v>
+      </c>
+      <c r="C304" t="n">
+        <v>0.00346064</v>
+      </c>
+      <c r="D304" t="n">
+        <v>0.03141603999999999</v>
+      </c>
+      <c r="E304" t="n">
+        <v>93.72090896</v>
+      </c>
+      <c r="F304" t="n">
+        <v>612.3344256400001</v>
+      </c>
+      <c r="G304" t="n">
+        <v>67.15773776</v>
+      </c>
+      <c r="H304" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="n">
+        <v>303</v>
+      </c>
+      <c r="B305" t="n">
+        <v>7.599999999999994e-05</v>
+      </c>
+      <c r="C305" t="n">
+        <v>0.00085924</v>
+      </c>
+      <c r="D305" t="n">
+        <v>0.01891700000000001</v>
+      </c>
+      <c r="E305" t="n">
+        <v>15.85753764</v>
+      </c>
+      <c r="F305" t="n">
+        <v>147.72213924</v>
+      </c>
+      <c r="G305" t="n">
+        <v>12.126012</v>
+      </c>
+      <c r="H305" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="n">
+        <v>304</v>
+      </c>
+      <c r="B306" t="n">
+        <v>0.004240359999999999</v>
+      </c>
+      <c r="C306" t="n">
+        <v>0.00400596</v>
+      </c>
+      <c r="D306" t="n">
+        <v>0.03576976</v>
+      </c>
+      <c r="E306" t="n">
+        <v>64.37585316000001</v>
+      </c>
+      <c r="F306" t="n">
+        <v>212.05612756</v>
+      </c>
+      <c r="G306" t="n">
+        <v>14.38392464</v>
+      </c>
+      <c r="H306" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="n">
+        <v>305</v>
+      </c>
+      <c r="B307" t="n">
+        <v>0.00870544</v>
+      </c>
+      <c r="C307" t="n">
+        <v>0.00629796</v>
+      </c>
+      <c r="D307" t="n">
+        <v>0.03574404</v>
+      </c>
+      <c r="E307" t="n">
+        <v>21.95769936</v>
+      </c>
+      <c r="F307" t="n">
+        <v>273.43625204</v>
+      </c>
+      <c r="G307" t="n">
+        <v>52.96215056</v>
+      </c>
+      <c r="H307" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="n">
+        <v>306</v>
+      </c>
+      <c r="B308" t="n">
+        <v>0.0007328399999999999</v>
+      </c>
+      <c r="C308" t="n">
+        <v>0.00125956</v>
+      </c>
+      <c r="D308" t="n">
+        <v>0.017812</v>
+      </c>
+      <c r="E308" t="n">
+        <v>35.36607136</v>
+      </c>
+      <c r="F308" t="n">
+        <v>332.8757312400001</v>
+      </c>
+      <c r="G308" t="n">
+        <v>41.406909</v>
+      </c>
+      <c r="H308" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="n">
+        <v>307</v>
+      </c>
+      <c r="B309" t="n">
+        <v>0.00044016</v>
+      </c>
+      <c r="C309" t="n">
+        <v>0.00088496</v>
+      </c>
+      <c r="D309" t="n">
+        <v>0.008614439999999998</v>
+      </c>
+      <c r="E309" t="n">
+        <v>22.38023744</v>
+      </c>
+      <c r="F309" t="n">
+        <v>44.00847203999999</v>
+      </c>
+      <c r="G309" t="n">
+        <v>6.467075239999999</v>
+      </c>
+      <c r="H309" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="n">
+        <v>308</v>
+      </c>
+      <c r="B310" t="n">
+        <v>0.00572436</v>
+      </c>
+      <c r="C310" t="n">
+        <v>0.006136840000000001</v>
+      </c>
+      <c r="D310" t="n">
+        <v>0.02429956</v>
+      </c>
+      <c r="E310" t="n">
+        <v>106.17620224</v>
+      </c>
+      <c r="F310" t="n">
+        <v>332.356589</v>
+      </c>
+      <c r="G310" t="n">
+        <v>47.29211796</v>
+      </c>
+      <c r="H310" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="n">
+        <v>309</v>
+      </c>
+      <c r="B311" t="n">
+        <v>0.009649960000000003</v>
+      </c>
+      <c r="C311" t="n">
+        <v>0.006156840000000001</v>
+      </c>
+      <c r="D311" t="n">
+        <v>0.03448816</v>
+      </c>
+      <c r="E311" t="n">
+        <v>177.80957316</v>
+      </c>
+      <c r="F311" t="n">
+        <v>849.807684</v>
+      </c>
+      <c r="G311" t="n">
+        <v>95.57095615999998</v>
+      </c>
+      <c r="H311" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="n">
+        <v>310</v>
+      </c>
+      <c r="B312" t="n">
+        <v>0.0003113600000000001</v>
+      </c>
+      <c r="C312" t="n">
+        <v>0.0009705599999999999</v>
+      </c>
+      <c r="D312" t="n">
+        <v>0.01012896000000001</v>
+      </c>
+      <c r="E312" t="n">
+        <v>23.30012084</v>
+      </c>
+      <c r="F312" t="n">
+        <v>70.08980656</v>
+      </c>
+      <c r="G312" t="n">
+        <v>7.299136</v>
+      </c>
+      <c r="H312" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="n">
+        <v>311</v>
+      </c>
+      <c r="B313" t="n">
+        <v>0.003617</v>
+      </c>
+      <c r="C313" t="n">
+        <v>0.008308639999999999</v>
+      </c>
+      <c r="D313" t="n">
+        <v>0.04297715999999999</v>
+      </c>
+      <c r="E313" t="n">
+        <v>113.16338656</v>
+      </c>
+      <c r="F313" t="n">
+        <v>59.07347396000001</v>
+      </c>
+      <c r="G313" t="n">
+        <v>24.40216756</v>
+      </c>
+      <c r="H313" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="n">
+        <v>312</v>
+      </c>
+      <c r="B314" t="n">
+        <v>0.00525056</v>
+      </c>
+      <c r="C314" t="n">
+        <v>0.01084976</v>
+      </c>
+      <c r="D314" t="n">
+        <v>0.05592943999999999</v>
+      </c>
+      <c r="E314" t="n">
+        <v>77.37521296000001</v>
+      </c>
+      <c r="F314" t="n">
+        <v>308.12738964</v>
+      </c>
+      <c r="G314" t="n">
+        <v>83.38504256</v>
+      </c>
+      <c r="H314" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="n">
+        <v>313</v>
+      </c>
+      <c r="B315" t="n">
+        <v>0.0005849999999999998</v>
+      </c>
+      <c r="C315" t="n">
+        <v>0.002824</v>
+      </c>
+      <c r="D315" t="n">
+        <v>0.01498</v>
+      </c>
+      <c r="E315" t="n">
+        <v>70.08058996</v>
+      </c>
+      <c r="F315" t="n">
+        <v>230.16518564</v>
+      </c>
+      <c r="G315" t="n">
+        <v>22.446665</v>
+      </c>
+      <c r="H315" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="n">
+        <v>314</v>
+      </c>
+      <c r="B316" t="n">
+        <v>0.009877760000000003</v>
+      </c>
+      <c r="C316" t="n">
+        <v>0.001693</v>
+      </c>
+      <c r="D316" t="n">
+        <v>0.009168839999999994</v>
+      </c>
+      <c r="E316" t="n">
+        <v>22.62258416000001</v>
+      </c>
+      <c r="F316" t="n">
+        <v>224.08550496</v>
+      </c>
+      <c r="G316" t="n">
+        <v>12.38091956</v>
+      </c>
+      <c r="H316" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="n">
+        <v>315</v>
+      </c>
+      <c r="B317" t="n">
+        <v>0.01160416</v>
+      </c>
+      <c r="C317" t="n">
+        <v>0.01158896</v>
+      </c>
+      <c r="D317" t="n">
+        <v>0.06198964</v>
+      </c>
+      <c r="E317" t="n">
+        <v>164.65525124</v>
+      </c>
+      <c r="F317" t="n">
+        <v>433.5977248400001</v>
+      </c>
+      <c r="G317" t="n">
+        <v>112.603789</v>
+      </c>
+      <c r="H317" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="n">
+        <v>316</v>
+      </c>
+      <c r="B318" t="n">
+        <v>0.000956</v>
+      </c>
+      <c r="C318" t="n">
+        <v>0.00252916</v>
+      </c>
+      <c r="D318" t="n">
+        <v>0.04062884000000001</v>
+      </c>
+      <c r="E318" t="n">
+        <v>43.54905056</v>
+      </c>
+      <c r="F318" t="n">
+        <v>135.96990336</v>
+      </c>
+      <c r="G318" t="n">
+        <v>18.701064</v>
+      </c>
+      <c r="H318" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="n">
+        <v>317</v>
+      </c>
+      <c r="B319" t="n">
+        <v>0.000116</v>
+      </c>
+      <c r="C319" t="n">
+        <v>0.00103024</v>
+      </c>
+      <c r="D319" t="n">
+        <v>0.01097376</v>
+      </c>
+      <c r="E319" t="n">
+        <v>11.478288</v>
+      </c>
+      <c r="F319" t="n">
+        <v>84.39807599999999</v>
+      </c>
+      <c r="G319" t="n">
+        <v>8.544920039999999</v>
+      </c>
+      <c r="H319" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="n">
+        <v>318</v>
+      </c>
+      <c r="B320" t="n">
+        <v>0.010137</v>
+      </c>
+      <c r="C320" t="n">
+        <v>0.006060159999999998</v>
+      </c>
+      <c r="D320" t="n">
+        <v>0.03855555999999999</v>
+      </c>
+      <c r="E320" t="n">
+        <v>103.45572096</v>
+      </c>
+      <c r="F320" t="n">
+        <v>156.70214436</v>
+      </c>
+      <c r="G320" t="n">
+        <v>35.988481</v>
+      </c>
+      <c r="H320" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="n">
+        <v>319</v>
+      </c>
+      <c r="B321" t="n">
+        <v>0.01037076</v>
+      </c>
+      <c r="C321" t="n">
+        <v>0.008433000000000001</v>
+      </c>
+      <c r="D321" t="n">
+        <v>0.03617215999999999</v>
+      </c>
+      <c r="E321" t="n">
+        <v>121.93649636</v>
+      </c>
+      <c r="F321" t="n">
+        <v>837.5362569599998</v>
+      </c>
+      <c r="G321" t="n">
+        <v>123.99139236</v>
+      </c>
+      <c r="H321" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="n">
+        <v>320</v>
+      </c>
+      <c r="B322" t="n">
+        <v>0.0009838399999999999</v>
+      </c>
+      <c r="C322" t="n">
+        <v>0.0009889600000000001</v>
+      </c>
+      <c r="D322" t="n">
+        <v>0.01107344000000001</v>
+      </c>
+      <c r="E322" t="n">
+        <v>43.22323796</v>
+      </c>
+      <c r="F322" t="n">
+        <v>289.73743056</v>
+      </c>
+      <c r="G322" t="n">
+        <v>29.46557296</v>
+      </c>
+      <c r="H322" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="n">
+        <v>321</v>
+      </c>
+      <c r="B323" t="n">
+        <v>0.0001473599999999999</v>
+      </c>
+      <c r="C323" t="n">
+        <v>0.000688</v>
+      </c>
+      <c r="D323" t="n">
+        <v>0.004853159999999998</v>
+      </c>
+      <c r="E323" t="n">
+        <v>15.73619236</v>
+      </c>
+      <c r="F323" t="n">
+        <v>108.56247316</v>
+      </c>
+      <c r="G323" t="n">
+        <v>4.957293160000001</v>
+      </c>
+      <c r="H323" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="n">
+        <v>322</v>
+      </c>
+      <c r="B324" t="n">
+        <v>0.00234304</v>
+      </c>
+      <c r="C324" t="n">
+        <v>0.005884</v>
+      </c>
+      <c r="D324" t="n">
+        <v>0.01246516</v>
+      </c>
+      <c r="E324" t="n">
+        <v>89.32165764</v>
+      </c>
+      <c r="F324" t="n">
+        <v>391.688021</v>
+      </c>
+      <c r="G324" t="n">
+        <v>41.14498196</v>
+      </c>
+      <c r="H324" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="n">
+        <v>323</v>
+      </c>
+      <c r="B325" t="n">
+        <v>0.00383924</v>
+      </c>
+      <c r="C325" t="n">
+        <v>0.011817</v>
+      </c>
+      <c r="D325" t="n">
+        <v>0.04789396</v>
+      </c>
+      <c r="E325" t="n">
+        <v>172.97732084</v>
+      </c>
+      <c r="F325" t="n">
+        <v>525.2892126400001</v>
+      </c>
+      <c r="G325" t="n">
+        <v>73.89056000000001</v>
+      </c>
+      <c r="H325" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="n">
+        <v>324</v>
+      </c>
+      <c r="B326" t="n">
+        <v>0.0007681599999999999</v>
+      </c>
+      <c r="C326" t="n">
+        <v>0.00181844</v>
+      </c>
+      <c r="D326" t="n">
+        <v>0.01461664</v>
+      </c>
+      <c r="E326" t="n">
+        <v>20.00305184</v>
+      </c>
+      <c r="F326" t="n">
+        <v>75.71876899999999</v>
+      </c>
+      <c r="G326" t="n">
+        <v>14.62591136</v>
+      </c>
+      <c r="H326" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="n">
+        <v>325</v>
+      </c>
+      <c r="B327" t="n">
+        <v>0.00284196</v>
+      </c>
+      <c r="C327" t="n">
+        <v>0.00462804</v>
+      </c>
+      <c r="D327" t="n">
+        <v>0.03595203999999999</v>
+      </c>
+      <c r="E327" t="n">
+        <v>87.62584355999999</v>
+      </c>
+      <c r="F327" t="n">
+        <v>215.04094384</v>
+      </c>
+      <c r="G327" t="n">
+        <v>22.81696384</v>
+      </c>
+      <c r="H327" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="n">
+        <v>326</v>
+      </c>
+      <c r="B328" t="n">
+        <v>0.00342084</v>
+      </c>
+      <c r="C328" t="n">
+        <v>0.00751684</v>
+      </c>
+      <c r="D328" t="n">
+        <v>0.05358500000000001</v>
+      </c>
+      <c r="E328" t="n">
+        <v>147.806988</v>
+      </c>
+      <c r="F328" t="n">
+        <v>771.8740513600002</v>
+      </c>
+      <c r="G328" t="n">
+        <v>146.38184164</v>
+      </c>
+      <c r="H328" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="B329" t="n">
+        <v>0.0009358399999999998</v>
+      </c>
+      <c r="C329" t="n">
+        <v>0.00137296</v>
+      </c>
+      <c r="D329" t="n">
+        <v>0.008843840000000006</v>
+      </c>
+      <c r="E329" t="n">
+        <v>37.56352</v>
+      </c>
+      <c r="F329" t="n">
+        <v>477.02175684</v>
+      </c>
+      <c r="G329" t="n">
+        <v>47.66587983999999</v>
+      </c>
+      <c r="H329" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="n">
+        <v>328</v>
+      </c>
+      <c r="B330" t="n">
+        <v>0.0004600399999999999</v>
+      </c>
+      <c r="C330" t="n">
+        <v>0.0005969999999999999</v>
+      </c>
+      <c r="D330" t="n">
+        <v>0.009591359999999997</v>
+      </c>
+      <c r="E330" t="n">
+        <v>10.553025</v>
+      </c>
+      <c r="F330" t="n">
+        <v>172.036293</v>
+      </c>
+      <c r="G330" t="n">
+        <v>9.485937959999999</v>
+      </c>
+      <c r="H330" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="n">
+        <v>329</v>
+      </c>
+      <c r="B331" t="n">
+        <v>0.009864359999999999</v>
+      </c>
+      <c r="C331" t="n">
+        <v>0.008353439999999998</v>
+      </c>
+      <c r="D331" t="n">
+        <v>0.05298484000000001</v>
+      </c>
+      <c r="E331" t="n">
+        <v>132.86984244</v>
+      </c>
+      <c r="F331" t="n">
+        <v>603.82644944</v>
+      </c>
+      <c r="G331" t="n">
+        <v>142.59482</v>
+      </c>
+      <c r="H331" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="n">
+        <v>330</v>
+      </c>
+      <c r="B332" t="n">
+        <v>0.00094624</v>
+      </c>
+      <c r="C332" t="n">
+        <v>0.002245</v>
+      </c>
+      <c r="D332" t="n">
+        <v>0.05467296</v>
+      </c>
+      <c r="E332" t="n">
+        <v>34.54843216</v>
+      </c>
+      <c r="F332" t="n">
+        <v>283.54164836</v>
+      </c>
+      <c r="G332" t="n">
+        <v>40.58318896</v>
+      </c>
+      <c r="H332" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="n">
+        <v>331</v>
+      </c>
+      <c r="B333" t="n">
+        <v>0.000344</v>
+      </c>
+      <c r="C333" t="n">
+        <v>0.0007825600000000002</v>
+      </c>
+      <c r="D333" t="n">
+        <v>0.006732000000000005</v>
+      </c>
+      <c r="E333" t="n">
+        <v>7.648129960000001</v>
+      </c>
+      <c r="F333" t="n">
+        <v>58.262741</v>
+      </c>
+      <c r="G333" t="n">
+        <v>13.799908</v>
+      </c>
+      <c r="H333" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="n">
+        <v>332</v>
+      </c>
+      <c r="B334" t="n">
+        <v>0.002284</v>
+      </c>
+      <c r="C334" t="n">
+        <v>0.00461456</v>
+      </c>
+      <c r="D334" t="n">
+        <v>0.04312703999999999</v>
+      </c>
+      <c r="E334" t="n">
+        <v>106.42385856</v>
+      </c>
+      <c r="F334" t="n">
+        <v>199.08789716</v>
+      </c>
+      <c r="G334" t="n">
+        <v>36.47539264</v>
+      </c>
+      <c r="H334" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="n">
+        <v>333</v>
+      </c>
+      <c r="B335" t="n">
+        <v>0.00195856</v>
+      </c>
+      <c r="C335" t="n">
+        <v>0.00612916</v>
+      </c>
+      <c r="D335" t="n">
+        <v>0.06055124</v>
+      </c>
+      <c r="E335" t="n">
+        <v>73.55458356000001</v>
+      </c>
+      <c r="F335" t="n">
+        <v>841.2397904400001</v>
+      </c>
+      <c r="G335" t="n">
+        <v>118.72411056</v>
+      </c>
+      <c r="H335" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="n">
+        <v>334</v>
+      </c>
+      <c r="B336" t="n">
+        <v>0.000593</v>
+      </c>
+      <c r="C336" t="n">
+        <v>0.00118816</v>
+      </c>
+      <c r="D336" t="n">
+        <v>0.01418704</v>
+      </c>
+      <c r="E336" t="n">
+        <v>55.81998436</v>
+      </c>
+      <c r="F336" t="n">
+        <v>395.2063970000001</v>
+      </c>
+      <c r="G336" t="n">
+        <v>46.89768864</v>
+      </c>
+      <c r="H336" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="n">
+        <v>335</v>
+      </c>
+      <c r="B337" t="n">
+        <v>0.0005870399999999999</v>
+      </c>
+      <c r="C337" t="n">
+        <v>0.00103556</v>
+      </c>
+      <c r="D337" t="n">
+        <v>0.004938239999999996</v>
+      </c>
+      <c r="E337" t="n">
+        <v>20.45113716</v>
+      </c>
+      <c r="F337" t="n">
+        <v>239.13532</v>
+      </c>
+      <c r="G337" t="n">
+        <v>24.75638</v>
+      </c>
+      <c r="H337" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="n">
+        <v>336</v>
+      </c>
+      <c r="B338" t="n">
+        <v>0.00705716</v>
+      </c>
+      <c r="C338" t="n">
+        <v>0.01283156</v>
+      </c>
+      <c r="D338" t="n">
+        <v>0.02828596</v>
+      </c>
+      <c r="E338" t="n">
+        <v>271.64507904</v>
+      </c>
+      <c r="F338" t="n">
+        <v>660.15203984</v>
+      </c>
+      <c r="G338" t="n">
+        <v>146.06506336</v>
+      </c>
+      <c r="H338" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="n">
+        <v>337</v>
+      </c>
+      <c r="B339" t="n">
+        <v>0.00074224</v>
+      </c>
+      <c r="C339" t="n">
+        <v>0.00334336</v>
+      </c>
+      <c r="D339" t="n">
+        <v>0.05238863999999999</v>
+      </c>
+      <c r="E339" t="n">
+        <v>47.28147715999999</v>
+      </c>
+      <c r="F339" t="n">
+        <v>223.58149696</v>
+      </c>
+      <c r="G339" t="n">
+        <v>33.51216896</v>
+      </c>
+      <c r="H339" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="n">
+        <v>338</v>
+      </c>
+      <c r="B340" t="n">
+        <v>0.00104816</v>
+      </c>
+      <c r="C340" t="n">
+        <v>0.00273264</v>
+      </c>
+      <c r="D340" t="n">
+        <v>0.01932975999999999</v>
+      </c>
+      <c r="E340" t="n">
+        <v>15.577569</v>
+      </c>
+      <c r="F340" t="n">
+        <v>189.73479796</v>
+      </c>
+      <c r="G340" t="n">
+        <v>28.39445156000001</v>
+      </c>
+      <c r="H340" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="n">
+        <v>339</v>
+      </c>
+      <c r="B341" t="n">
+        <v>0.00421156</v>
+      </c>
+      <c r="C341" t="n">
+        <v>0.00444576</v>
+      </c>
+      <c r="D341" t="n">
+        <v>0.05371615999999999</v>
+      </c>
+      <c r="E341" t="n">
+        <v>95.68952099999998</v>
+      </c>
+      <c r="F341" t="n">
+        <v>217.40211136</v>
+      </c>
+      <c r="G341" t="n">
+        <v>41.33067264</v>
+      </c>
+      <c r="H341" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="n">
+        <v>340</v>
+      </c>
+      <c r="B342" t="n">
+        <v>0.005045640000000001</v>
+      </c>
+      <c r="C342" t="n">
+        <v>0.006729160000000001</v>
+      </c>
+      <c r="D342" t="n">
+        <v>0.05049904</v>
+      </c>
+      <c r="E342" t="n">
+        <v>95.47778356000001</v>
+      </c>
+      <c r="F342" t="n">
+        <v>486.431156</v>
+      </c>
+      <c r="G342" t="n">
+        <v>127.83520544</v>
+      </c>
+      <c r="H342" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="n">
+        <v>341</v>
+      </c>
+      <c r="B343" t="n">
+        <v>0.0007384399999999999</v>
+      </c>
+      <c r="C343" t="n">
+        <v>0.00147044</v>
+      </c>
+      <c r="D343" t="n">
+        <v>0.01262064</v>
+      </c>
+      <c r="E343" t="n">
+        <v>47.931656</v>
+      </c>
+      <c r="F343" t="n">
+        <v>493.749132</v>
+      </c>
+      <c r="G343" t="n">
+        <v>69.26454096000001</v>
+      </c>
+      <c r="H343" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="n">
+        <v>342</v>
+      </c>
+      <c r="B344" t="n">
+        <v>0.0005570000000000001</v>
+      </c>
+      <c r="C344" t="n">
+        <v>0.00191204</v>
+      </c>
+      <c r="D344" t="n">
+        <v>0.003588639999999995</v>
+      </c>
+      <c r="E344" t="n">
+        <v>30.55746944</v>
+      </c>
+      <c r="F344" t="n">
+        <v>147.45872244</v>
+      </c>
+      <c r="G344" t="n">
+        <v>3.93192564</v>
+      </c>
+      <c r="H344" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="n">
+        <v>343</v>
+      </c>
+      <c r="B345" t="n">
+        <v>0.003805640000000001</v>
+      </c>
+      <c r="C345" t="n">
+        <v>0.00614256</v>
+      </c>
+      <c r="D345" t="n">
+        <v>0.019793</v>
+      </c>
+      <c r="E345" t="n">
+        <v>132.07620644</v>
+      </c>
+      <c r="F345" t="n">
+        <v>670.7776608400001</v>
+      </c>
+      <c r="G345" t="n">
+        <v>70.60996704</v>
+      </c>
+      <c r="H345" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="n">
+        <v>344</v>
+      </c>
+      <c r="B346" t="n">
+        <v>0.00231156</v>
+      </c>
+      <c r="C346" t="n">
+        <v>0.005580959999999999</v>
+      </c>
+      <c r="D346" t="n">
+        <v>0.04320336</v>
+      </c>
+      <c r="E346" t="n">
+        <v>79.92785936</v>
+      </c>
+      <c r="F346" t="n">
+        <v>697.4066006399999</v>
+      </c>
+      <c r="G346" t="n">
+        <v>98.61020516000001</v>
+      </c>
+      <c r="H346" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="1" t="n">
+        <v>345</v>
+      </c>
+      <c r="B347" t="n">
+        <v>0.0007833600000000002</v>
+      </c>
+      <c r="C347" t="n">
+        <v>0.00218404</v>
+      </c>
+      <c r="D347" t="n">
+        <v>0.021853</v>
+      </c>
+      <c r="E347" t="n">
+        <v>28.91868464</v>
+      </c>
+      <c r="F347" t="n">
+        <v>200.11301716</v>
+      </c>
+      <c r="G347" t="n">
+        <v>32.91136323999999</v>
+      </c>
+      <c r="H347" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="1" t="n">
+        <v>346</v>
+      </c>
+      <c r="B348" t="n">
+        <v>0.002421</v>
+      </c>
+      <c r="C348" t="n">
+        <v>0.00451764</v>
+      </c>
+      <c r="D348" t="n">
+        <v>0.03715775999999999</v>
+      </c>
+      <c r="E348" t="n">
+        <v>65.06988324</v>
+      </c>
+      <c r="F348" t="n">
+        <v>319.3496690000001</v>
+      </c>
+      <c r="G348" t="n">
+        <v>16.27082</v>
+      </c>
+      <c r="H348" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="1" t="n">
+        <v>347</v>
+      </c>
+      <c r="B349" t="n">
+        <v>0.005033760000000001</v>
+      </c>
+      <c r="C349" t="n">
+        <v>0.00455936</v>
+      </c>
+      <c r="D349" t="n">
+        <v>0.065397</v>
+      </c>
+      <c r="E349" t="n">
+        <v>62.03472900000001</v>
+      </c>
+      <c r="F349" t="n">
+        <v>232.55465476</v>
+      </c>
+      <c r="G349" t="n">
+        <v>55.54950399999998</v>
+      </c>
+      <c r="H349" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="n">
+        <v>348</v>
+      </c>
+      <c r="B350" t="n">
+        <v>0.0007841600000000001</v>
+      </c>
+      <c r="C350" t="n">
+        <v>0.00171216</v>
+      </c>
+      <c r="D350" t="n">
+        <v>0.018072</v>
+      </c>
+      <c r="E350" t="n">
+        <v>39.61190964</v>
+      </c>
+      <c r="F350" t="n">
+        <v>262.91429376</v>
+      </c>
+      <c r="G350" t="n">
+        <v>43.77523300000001</v>
+      </c>
+      <c r="H350" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="1" t="n">
+        <v>349</v>
+      </c>
+      <c r="B351" t="n">
+        <v>0.00081796</v>
+      </c>
+      <c r="C351" t="n">
+        <v>0.0006902400000000001</v>
+      </c>
+      <c r="D351" t="n">
+        <v>0.002976999999999997</v>
+      </c>
+      <c r="E351" t="n">
+        <v>13.625137</v>
+      </c>
+      <c r="F351" t="n">
+        <v>125.66708416</v>
+      </c>
+      <c r="G351" t="n">
+        <v>17.22725616</v>
+      </c>
+      <c r="H351" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="n">
+        <v>350</v>
+      </c>
+      <c r="B352" t="n">
+        <v>0.003756</v>
+      </c>
+      <c r="C352" t="n">
+        <v>0.00630816</v>
+      </c>
+      <c r="D352" t="n">
+        <v>0.023537</v>
+      </c>
+      <c r="E352" t="n">
+        <v>187.47804976</v>
+      </c>
+      <c r="F352" t="n">
+        <v>576.68948084</v>
+      </c>
+      <c r="G352" t="n">
+        <v>91.08150223999999</v>
+      </c>
+      <c r="H352" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="1" t="n">
+        <v>351</v>
+      </c>
+      <c r="B353" t="n">
+        <v>0.005228999999999999</v>
+      </c>
+      <c r="C353" t="n">
+        <v>0.005409760000000001</v>
+      </c>
+      <c r="D353" t="n">
+        <v>0.02681923999999999</v>
+      </c>
+      <c r="E353" t="n">
+        <v>54.02865199999999</v>
+      </c>
+      <c r="F353" t="n">
+        <v>1340.61799204</v>
+      </c>
+      <c r="G353" t="n">
+        <v>227.00788</v>
+      </c>
+      <c r="H353" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="n">
+        <v>352</v>
+      </c>
+      <c r="B354" t="n">
+        <v>0.001400999999999999</v>
+      </c>
+      <c r="C354" t="n">
+        <v>0.00202736</v>
+      </c>
+      <c r="D354" t="n">
+        <v>0.01825284</v>
+      </c>
+      <c r="E354" t="n">
+        <v>15.08466</v>
+      </c>
+      <c r="F354" t="n">
+        <v>431.4731358400001</v>
+      </c>
+      <c r="G354" t="n">
+        <v>74.41892944</v>
+      </c>
+      <c r="H354" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="n">
+        <v>353</v>
+      </c>
+      <c r="B355" t="n">
+        <v>0.00104656</v>
+      </c>
+      <c r="C355" t="n">
+        <v>0.00104464</v>
+      </c>
+      <c r="D355" t="n">
+        <v>0.01163044</v>
+      </c>
+      <c r="E355" t="n">
+        <v>20.85443184</v>
+      </c>
+      <c r="F355" t="n">
+        <v>255.77849284</v>
+      </c>
+      <c r="G355" t="n">
+        <v>36.88475284</v>
+      </c>
+      <c r="H355" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="n">
+        <v>354</v>
+      </c>
+      <c r="B356" t="n">
+        <v>0.00531776</v>
+      </c>
+      <c r="C356" t="n">
+        <v>0.01115584</v>
+      </c>
+      <c r="D356" t="n">
+        <v>0.06552643999999999</v>
+      </c>
+      <c r="E356" t="n">
+        <v>299.333628</v>
+      </c>
+      <c r="F356" t="n">
+        <v>546.13104804</v>
+      </c>
+      <c r="G356" t="n">
+        <v>127.07918356</v>
+      </c>
+      <c r="H356" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="n">
+        <v>355</v>
+      </c>
+      <c r="B357" t="n">
+        <v>0.00170276</v>
+      </c>
+      <c r="C357" t="n">
+        <v>0.00422724</v>
+      </c>
+      <c r="D357" t="n">
+        <v>0.06986436</v>
+      </c>
+      <c r="E357" t="n">
+        <v>30.51739156</v>
+      </c>
+      <c r="F357" t="n">
+        <v>292.63924464</v>
+      </c>
+      <c r="G357" t="n">
+        <v>58.37061603999999</v>
+      </c>
+      <c r="H357" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="n">
+        <v>356</v>
+      </c>
+      <c r="B358" t="n">
+        <v>0.000841</v>
+      </c>
+      <c r="C358" t="n">
+        <v>0.00275616</v>
+      </c>
+      <c r="D358" t="n">
+        <v>0.016792</v>
+      </c>
+      <c r="E358" t="n">
+        <v>36.51754544</v>
+      </c>
+      <c r="F358" t="n">
+        <v>280.6107400400001</v>
+      </c>
+      <c r="G358" t="n">
+        <v>38.04187076</v>
+      </c>
+      <c r="H358" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="n">
+        <v>357</v>
+      </c>
+      <c r="B359" t="n">
+        <v>0.003572039999999999</v>
+      </c>
+      <c r="C359" t="n">
+        <v>0.009910560000000001</v>
+      </c>
+      <c r="D359" t="n">
+        <v>0.06483999999999999</v>
+      </c>
+      <c r="E359" t="n">
+        <v>221.78496464</v>
+      </c>
+      <c r="F359" t="n">
+        <v>551.130805</v>
+      </c>
+      <c r="G359" t="n">
+        <v>125.30788644</v>
+      </c>
+      <c r="H359" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="1" t="n">
+        <v>358</v>
+      </c>
+      <c r="B360" t="n">
+        <v>0.01777424</v>
+      </c>
+      <c r="C360" t="n">
+        <v>0.02517184</v>
+      </c>
+      <c r="D360" t="n">
+        <v>0.07360799999999999</v>
+      </c>
+      <c r="E360" t="n">
+        <v>312.05127396</v>
+      </c>
+      <c r="F360" t="n">
+        <v>2189.39062544</v>
+      </c>
+      <c r="G360" t="n">
+        <v>211.192108</v>
+      </c>
+      <c r="H360" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="n">
+        <v>359</v>
+      </c>
+      <c r="B361" t="n">
+        <v>0.00943076</v>
+      </c>
+      <c r="C361" t="n">
+        <v>0.00535716</v>
+      </c>
+      <c r="D361" t="n">
+        <v>0.07260016</v>
+      </c>
+      <c r="E361" t="n">
+        <v>120.57050064</v>
+      </c>
+      <c r="F361" t="n">
+        <v>1527.34335604</v>
+      </c>
+      <c r="G361" t="n">
+        <v>83.83091236</v>
+      </c>
+      <c r="H361" t="n">
         <v>4</v>
       </c>
     </row>
